--- a/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{116CBD19-35E8-4ACD-B539-75D5082BF0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAEA310-8E13-472B-B60A-28541456091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{38983211-CD3A-4F29-A795-D39F742C3D09}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1AD6E10D-BBF9-4ECB-B4B7-1D3CCB3721CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="734">
   <si>
     <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,2169 +76,2130 @@
     <t>29,95%</t>
   </si>
   <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>49,61%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,8%</t>
+  </si>
+  <si>
+    <t>48,02%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>41,54%</t>
+  </si>
+  <si>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>41,33%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,45%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>39,69%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>34,0%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>33,42%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>31,55%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
     <t>26,54%</t>
   </si>
   <si>
-    <t>33,04%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,18%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>25,21%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>37,93%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>35,2%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
   </si>
   <si>
     <t>1,64%</t>
   </si>
   <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>10,84%</t>
   </si>
   <si>
-    <t>14,76%</t>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>54,25%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,85%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>39,0%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>48,88%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>38,05%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,64%</t>
-  </si>
-  <si>
-    <t>42,78%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>33,93%</t>
-  </si>
-  <si>
-    <t>38,47%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>32,43%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>34,66%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,51%</t>
-  </si>
-  <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>26,16%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>0,83%</t>
-  </si>
-  <si>
     <t>1,31%</t>
   </si>
   <si>
@@ -2251,34 +2212,34 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,02%</t>
+    <t>5,06%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2651,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC234F49-7113-47D3-8BEA-E9565ECDD96D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187D730F-3768-4D98-9453-EC4A94B9E98E}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3072,10 +3033,10 @@
         <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -3084,13 +3045,13 @@
         <v>102737</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>63</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
@@ -3099,19 +3060,19 @@
         <v>150014</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7">
         <v>22</v>
@@ -3120,13 +3081,13 @@
         <v>23273</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3135,13 +3096,13 @@
         <v>40004</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3150,19 +3111,19 @@
         <v>63277</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7">
         <v>315</v>
@@ -3171,13 +3132,13 @@
         <v>330293</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>510</v>
@@ -3186,13 +3147,13 @@
         <v>546539</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
@@ -3201,13 +3162,13 @@
         <v>876833</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3222,13 +3183,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -3237,13 +3198,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -3252,18 +3213,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3275,13 +3236,13 @@
         <v>350871</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>331</v>
@@ -3290,13 +3251,13 @@
         <v>351049</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>662</v>
@@ -3305,13 +3266,13 @@
         <v>701921</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3326,13 +3287,13 @@
         <v>44619</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -3431,10 +3392,10 @@
         <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>21</v>
+        <v>118</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3443,13 +3404,13 @@
         <v>66047</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -3458,13 +3419,13 @@
         <v>142686</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3479,10 +3440,10 @@
         <v>116575</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>126</v>
+        <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>127</v>
@@ -3566,13 +3527,13 @@
         <v>141</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="7">
         <v>52</v>
@@ -3581,13 +3542,13 @@
         <v>55332</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -3602,7 +3563,7 @@
         <v>146</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>44</v>
+        <v>147</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -3614,16 +3575,16 @@
         <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7">
         <v>966</v>
@@ -3632,13 +3593,13 @@
         <v>1016441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>661</v>
@@ -3647,13 +3608,13 @@
         <v>710566</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>1627</v>
@@ -3662,13 +3623,13 @@
         <v>1727007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,13 +3644,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -3698,13 +3659,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -3713,18 +3674,18 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3736,13 +3697,13 @@
         <v>68763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -3751,13 +3712,13 @@
         <v>89792</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -3766,13 +3727,13 @@
         <v>158555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3787,13 +3748,13 @@
         <v>11267</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>170</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3817,13 +3778,13 @@
         <v>29246</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="P23" s="7" t="s">
-        <v>175</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>176</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3799,13 @@
         <v>47016</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -3853,13 +3814,13 @@
         <v>58898</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -3868,13 +3829,13 @@
         <v>105914</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,10 +3853,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -3904,13 +3865,13 @@
         <v>26098</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -3919,13 +3880,13 @@
         <v>48060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3940,13 +3901,13 @@
         <v>29024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>194</v>
+        <v>74</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -3955,13 +3916,13 @@
         <v>46321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -3970,13 +3931,13 @@
         <v>75345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3952,13 @@
         <v>29191</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -4006,13 +3967,13 @@
         <v>43147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -4021,19 +3982,19 @@
         <v>72338</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>133</v>
+        <v>204</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -4042,13 +4003,13 @@
         <v>9202</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>145</v>
+        <v>208</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4057,13 +4018,13 @@
         <v>18574</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -4072,19 +4033,19 @@
         <v>27776</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="7">
         <v>243</v>
@@ -4093,13 +4054,13 @@
         <v>264756</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H29" s="7">
         <v>146</v>
@@ -4108,13 +4069,13 @@
         <v>157823</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M29" s="7">
         <v>389</v>
@@ -4123,13 +4084,13 @@
         <v>422579</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4144,13 +4105,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -4159,13 +4120,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -4174,13 +4135,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4197,13 +4158,13 @@
         <v>710902</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -4212,13 +4173,13 @@
         <v>694434</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>230</v>
+        <v>162</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M31" s="7">
         <v>1303</v>
@@ -4227,13 +4188,13 @@
         <v>1405336</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4248,13 +4209,13 @@
         <v>85707</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>237</v>
+        <v>118</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -4263,13 +4224,13 @@
         <v>132042</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>148</v>
+        <v>234</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>21</v>
+        <v>235</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>238</v>
+        <v>23</v>
       </c>
       <c r="M32" s="7">
         <v>198</v>
@@ -4278,13 +4239,13 @@
         <v>217749</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>48</v>
+        <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4299,13 +4260,13 @@
         <v>360243</v>
       </c>
       <c r="E33" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H33" s="7">
         <v>438</v>
@@ -4314,13 +4275,13 @@
         <v>479069</v>
       </c>
       <c r="J33" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="L33" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="M33" s="7">
         <v>777</v>
@@ -4329,13 +4290,13 @@
         <v>839312</v>
       </c>
       <c r="O33" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q33" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P33" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q33" s="7" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4350,13 +4311,13 @@
         <v>143407</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>249</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>121</v>
+        <v>250</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -4365,13 +4326,13 @@
         <v>150651</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M34" s="7">
         <v>269</v>
@@ -4380,13 +4341,13 @@
         <v>294058</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>119</v>
+        <v>255</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,13 +4362,13 @@
         <v>221760</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="H35" s="7">
         <v>272</v>
@@ -4416,13 +4377,13 @@
         <v>298296</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>181</v>
+        <v>260</v>
       </c>
       <c r="M35" s="7">
         <v>477</v>
@@ -4431,13 +4392,13 @@
         <v>520056</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>257</v>
+        <v>190</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>258</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4413,13 @@
         <v>196397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H36" s="7">
         <v>250</v>
@@ -4467,13 +4428,13 @@
         <v>265411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -4482,19 +4443,19 @@
         <v>461809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>267</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7">
         <v>84</v>
@@ -4503,13 +4464,13 @@
         <v>87807</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>146</v>
+        <v>269</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>107</v>
+        <v>271</v>
       </c>
       <c r="H37" s="7">
         <v>111</v>
@@ -4518,13 +4479,13 @@
         <v>117504</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="M37" s="7">
         <v>195</v>
@@ -4533,19 +4494,19 @@
         <v>205311</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>273</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="7">
         <v>1524</v>
@@ -4554,13 +4515,13 @@
         <v>1611491</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H38" s="7">
         <v>1317</v>
@@ -4569,13 +4530,13 @@
         <v>1414928</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M38" s="7">
         <v>2841</v>
@@ -4584,13 +4545,13 @@
         <v>3026419</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4566,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -4620,13 +4581,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -4635,18 +4596,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4665,7 +4626,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181E7F6F-76F3-4518-8B2E-1FDA1274233E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E451B5B-7970-4F60-ADF2-8517F84512F3}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4682,7 +4643,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4789,13 +4750,13 @@
         <v>216675</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -4804,13 +4765,13 @@
         <v>207292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M4" s="7">
         <v>410</v>
@@ -4819,13 +4780,13 @@
         <v>423967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,13 +4801,13 @@
         <v>30022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>295</v>
+        <v>146</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4858,10 +4819,10 @@
         <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4870,7 +4831,7 @@
         <v>69060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>200</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>300</v>
@@ -4924,10 +4885,10 @@
         <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>65</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>247</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4942,13 +4903,13 @@
         <v>24531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>268</v>
+        <v>76</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -4957,13 +4918,13 @@
         <v>49480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -4972,13 +4933,13 @@
         <v>74011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4993,13 +4954,13 @@
         <v>39676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>319</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>136</v>
+        <v>320</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -5008,13 +4969,13 @@
         <v>87947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -5023,13 +4984,13 @@
         <v>127622</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>199</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5005,13 @@
         <v>48877</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -5059,13 +5020,13 @@
         <v>49806</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>323</v>
+        <v>301</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>119</v>
+        <v>329</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -5074,19 +5035,19 @@
         <v>98683</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>41</v>
+        <v>331</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7">
         <v>12</v>
@@ -5095,13 +5056,13 @@
         <v>12285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5110,13 +5071,13 @@
         <v>20199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>329</v>
+        <v>22</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>331</v>
+        <v>311</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5125,19 +5086,19 @@
         <v>32484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7">
         <v>300</v>
@@ -5146,13 +5107,13 @@
         <v>295251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="H11" s="7">
         <v>388</v>
@@ -5161,13 +5122,13 @@
         <v>442883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="M11" s="7">
         <v>688</v>
@@ -5176,13 +5137,13 @@
         <v>738133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,13 +5158,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -5212,13 +5173,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -5227,18 +5188,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5250,13 +5211,13 @@
         <v>565735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="H13" s="7">
         <v>480</v>
@@ -5265,13 +5226,13 @@
         <v>492755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M13" s="7">
         <v>1015</v>
@@ -5280,13 +5241,13 @@
         <v>1058490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5301,13 +5262,13 @@
         <v>79581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5316,13 +5277,13 @@
         <v>67692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -5331,13 +5292,13 @@
         <v>147272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>357</v>
+        <v>238</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>21</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>312</v>
+        <v>251</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,13 +5313,13 @@
         <v>264852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="H15" s="7">
         <v>251</v>
@@ -5367,13 +5328,13 @@
         <v>261264</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="M15" s="7">
         <v>499</v>
@@ -5382,13 +5343,13 @@
         <v>526115</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>34</v>
+        <v>371</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,13 +5364,13 @@
         <v>79596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -5418,13 +5379,13 @@
         <v>104215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -5433,13 +5394,13 @@
         <v>183810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>372</v>
+        <v>171</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>373</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5415,13 @@
         <v>136488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5469,13 +5430,13 @@
         <v>147409</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>377</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -5484,13 +5445,13 @@
         <v>283897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,13 +5466,13 @@
         <v>135549</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -5520,13 +5481,13 @@
         <v>150362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>271</v>
@@ -5535,10 +5496,10 @@
         <v>285911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>51</v>
@@ -5547,7 +5508,7 @@
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="7">
         <v>53</v>
@@ -5556,13 +5517,13 @@
         <v>58319</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>389</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>390</v>
+        <v>329</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -5571,13 +5532,13 @@
         <v>78682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5586,19 +5547,19 @@
         <v>137001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>394</v>
+        <v>42</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>328</v>
+        <v>395</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>395</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7">
         <v>713</v>
@@ -5658,13 +5619,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -5673,13 +5634,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -5688,18 +5649,18 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5729,10 +5690,10 @@
         <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -5741,13 +5702,13 @@
         <v>335269</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>411</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5762,13 +5723,13 @@
         <v>21963</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5777,13 +5738,13 @@
         <v>8727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>419</v>
+        <v>236</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -5792,13 +5753,13 @@
         <v>30690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>27</v>
+        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5813,13 +5774,13 @@
         <v>50947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>422</v>
+        <v>260</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -5828,13 +5789,13 @@
         <v>60512</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="M24" s="7">
         <v>106</v>
@@ -5843,13 +5804,13 @@
         <v>111459</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>307</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5864,13 +5825,13 @@
         <v>18472</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>430</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5879,13 +5840,13 @@
         <v>27439</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>434</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -5894,13 +5855,13 @@
         <v>45911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5876,13 @@
         <v>47415</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5930,13 +5891,13 @@
         <v>62311</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>442</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>443</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -5945,13 +5906,13 @@
         <v>109727</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>445</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5927,13 @@
         <v>48046</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="H27" s="7">
         <v>49</v>
@@ -5981,13 +5942,13 @@
         <v>52100</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>450</v>
+        <v>240</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -5996,19 +5957,19 @@
         <v>100145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>184</v>
+        <v>450</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7">
         <v>17</v>
@@ -6017,13 +5978,13 @@
         <v>18288</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>175</v>
+        <v>454</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>456</v>
+        <v>66</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -6032,13 +5993,13 @@
         <v>16200</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -6047,19 +6008,19 @@
         <v>34487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>331</v>
+        <v>457</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>459</v>
+        <v>73</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>460</v>
+        <v>363</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="7">
         <v>165</v>
@@ -6068,13 +6029,13 @@
         <v>176877</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>149</v>
@@ -6083,13 +6044,13 @@
         <v>151461</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>465</v>
+        <v>292</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>314</v>
@@ -6098,13 +6059,13 @@
         <v>328339</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6080,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -6134,13 +6095,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -6149,13 +6110,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6133,13 @@
         <v>947288</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H31" s="7">
         <v>833</v>
@@ -6187,13 +6148,13 @@
         <v>870437</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M31" s="7">
         <v>1734</v>
@@ -6202,13 +6163,13 @@
         <v>1817726</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,10 +6187,10 @@
         <v>117</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>123</v>
+        <v>475</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="H32" s="7">
         <v>108</v>
@@ -6238,13 +6199,13 @@
         <v>115456</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>76</v>
+        <v>478</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="M32" s="7">
         <v>231</v>
@@ -6253,13 +6214,13 @@
         <v>247021</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>482</v>
+        <v>249</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>392</v>
+        <v>271</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>483</v>
+        <v>413</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6235,13 @@
         <v>402830</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>484</v>
+        <v>371</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H33" s="7">
         <v>397</v>
@@ -6289,13 +6250,13 @@
         <v>419791</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>488</v>
+        <v>161</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="M33" s="7">
         <v>782</v>
@@ -6304,13 +6265,13 @@
         <v>822621</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6325,13 +6286,13 @@
         <v>122598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>493</v>
+        <v>314</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>494</v>
+        <v>28</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>369</v>
+        <v>487</v>
       </c>
       <c r="H34" s="7">
         <v>174</v>
@@ -6340,13 +6301,13 @@
         <v>181134</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>497</v>
+        <v>26</v>
       </c>
       <c r="M34" s="7">
         <v>290</v>
@@ -6355,13 +6316,13 @@
         <v>303732</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>372</v>
+        <v>479</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>499</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6376,13 +6337,13 @@
         <v>223579</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="H35" s="7">
         <v>278</v>
@@ -6391,13 +6352,13 @@
         <v>297666</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>504</v>
+        <v>303</v>
       </c>
       <c r="M35" s="7">
         <v>490</v>
@@ -6406,13 +6367,13 @@
         <v>521246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>423</v>
+        <v>496</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6427,13 +6388,13 @@
         <v>232472</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>207</v>
+        <v>499</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="H36" s="7">
         <v>238</v>
@@ -6442,13 +6403,13 @@
         <v>252268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>509</v>
+        <v>176</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>139</v>
+        <v>502</v>
       </c>
       <c r="M36" s="7">
         <v>456</v>
@@ -6457,19 +6418,19 @@
         <v>484739</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>63</v>
+        <v>504</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7">
         <v>82</v>
@@ -6478,13 +6439,13 @@
         <v>88892</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>77</v>
+        <v>454</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>237</v>
+        <v>311</v>
       </c>
       <c r="H37" s="7">
         <v>111</v>
@@ -6493,13 +6454,13 @@
         <v>115080</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>391</v>
+        <v>27</v>
       </c>
       <c r="M37" s="7">
         <v>193</v>
@@ -6508,19 +6469,19 @@
         <v>203972</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="7">
         <v>1178</v>
@@ -6529,13 +6490,13 @@
         <v>1228394</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="H38" s="7">
         <v>1187</v>
@@ -6544,13 +6505,13 @@
         <v>1280267</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="M38" s="7">
         <v>2365</v>
@@ -6559,13 +6520,13 @@
         <v>2508660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6580,13 +6541,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -6595,13 +6556,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -6610,18 +6571,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -6640,7 +6601,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EC0CC2-B77D-4070-A0CE-332ADA47BBFD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6B0E5-DBFF-4624-AF56-51F879DAB4B1}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6657,7 +6618,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6764,13 +6725,13 @@
         <v>160198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="H4" s="7">
         <v>222</v>
@@ -6779,13 +6740,13 @@
         <v>128663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="M4" s="7">
         <v>427</v>
@@ -6794,13 +6755,13 @@
         <v>288861</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6815,13 +6776,13 @@
         <v>50299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>530</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -6830,13 +6791,13 @@
         <v>82964</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>538</v>
+        <v>258</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -6845,13 +6806,13 @@
         <v>133263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6866,13 +6827,13 @@
         <v>47275</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>544</v>
+        <v>535</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="H6" s="7">
         <v>150</v>
@@ -6881,13 +6842,13 @@
         <v>80297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -6896,13 +6857,13 @@
         <v>127572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>549</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6917,13 +6878,13 @@
         <v>18322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>551</v>
+        <v>208</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>552</v>
+        <v>143</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>553</v>
+        <v>488</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -6932,13 +6893,13 @@
         <v>24089</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>554</v>
+        <v>542</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -6947,13 +6908,13 @@
         <v>42411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>556</v>
+        <v>235</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>557</v>
+        <v>69</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>544</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6968,13 +6929,13 @@
         <v>29146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>558</v>
+        <v>545</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>546</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>537</v>
+        <v>380</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
@@ -6983,13 +6944,13 @@
         <v>51512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>391</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>433</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>547</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -6998,13 +6959,13 @@
         <v>80658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>560</v>
+        <v>26</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>548</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7019,13 +6980,13 @@
         <v>16154</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -7034,13 +6995,13 @@
         <v>24800</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>391</v>
+        <v>544</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -7049,19 +7010,19 @@
         <v>40953</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>563</v>
+        <v>99</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -7070,13 +7031,13 @@
         <v>2187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>565</v>
+        <v>553</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7085,13 +7046,13 @@
         <v>6653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7100,19 +7061,19 @@
         <v>8840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>572</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C11" s="7">
         <v>281</v>
@@ -7121,13 +7082,13 @@
         <v>217228</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="H11" s="7">
         <v>720</v>
@@ -7136,13 +7097,13 @@
         <v>430081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -7151,13 +7112,13 @@
         <v>647308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7172,28 +7133,28 @@
         <v>540809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H12" s="7">
         <v>1419</v>
       </c>
       <c r="I12" s="7">
-        <v>829058</v>
+        <v>829059</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M12" s="7">
         <v>2109</v>
@@ -7202,18 +7163,18 @@
         <v>1369867</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7225,13 +7186,13 @@
         <v>597639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="H13" s="7">
         <v>778</v>
@@ -7240,13 +7201,13 @@
         <v>536594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>574</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="M13" s="7">
         <v>1393</v>
@@ -7255,13 +7216,13 @@
         <v>1134233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7276,13 +7237,13 @@
         <v>255397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="H14" s="7">
         <v>370</v>
@@ -7291,13 +7252,13 @@
         <v>274179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="M14" s="7">
         <v>622</v>
@@ -7306,13 +7267,13 @@
         <v>529576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>596</v>
+        <v>585</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7327,13 +7288,13 @@
         <v>276919</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>598</v>
+        <v>587</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
       <c r="H15" s="7">
         <v>417</v>
@@ -7342,13 +7303,13 @@
         <v>297818</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>602</v>
+        <v>591</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>592</v>
       </c>
       <c r="M15" s="7">
         <v>680</v>
@@ -7357,13 +7318,13 @@
         <v>574736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>486</v>
+        <v>116</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7378,13 +7339,13 @@
         <v>95095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>595</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>597</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
@@ -7393,13 +7354,13 @@
         <v>124373</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>599</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
@@ -7408,13 +7369,13 @@
         <v>219469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7429,13 +7390,13 @@
         <v>147816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -7444,13 +7405,13 @@
         <v>294969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>605</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -7459,13 +7420,13 @@
         <v>442784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7480,13 +7441,13 @@
         <v>100259</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>176</v>
+        <v>476</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>610</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
@@ -7495,13 +7456,13 @@
         <v>98829</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>615</v>
+        <v>487</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>616</v>
+        <v>432</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>617</v>
+        <v>190</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -7510,19 +7471,19 @@
         <v>199088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>501</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="7">
         <v>22</v>
@@ -7531,13 +7492,13 @@
         <v>75234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -7546,13 +7507,13 @@
         <v>25809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>618</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -7561,19 +7522,19 @@
         <v>101043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>625</v>
+        <v>103</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C20" s="7">
         <v>531</v>
@@ -7582,13 +7543,13 @@
         <v>598953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="H20" s="7">
         <v>742</v>
@@ -7597,13 +7558,13 @@
         <v>585907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="M20" s="7">
         <v>1273</v>
@@ -7612,13 +7573,13 @@
         <v>1184860</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>628</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7633,13 +7594,13 @@
         <v>2147312</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H21" s="7">
         <v>2910</v>
@@ -7648,13 +7609,13 @@
         <v>2238478</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M21" s="7">
         <v>4893</v>
@@ -7663,18 +7624,18 @@
         <v>4385790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7686,13 +7647,13 @@
         <v>195906</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>637</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -7701,13 +7662,13 @@
         <v>187821</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="M22" s="7">
         <v>491</v>
@@ -7716,13 +7677,13 @@
         <v>383727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>611</v>
+        <v>635</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>636</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7737,13 +7698,13 @@
         <v>79977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>643</v>
+        <v>202</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -7752,13 +7713,13 @@
         <v>52147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>646</v>
+        <v>126</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>647</v>
+        <v>450</v>
       </c>
       <c r="M23" s="7">
         <v>164</v>
@@ -7767,13 +7728,13 @@
         <v>132124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7788,13 +7749,13 @@
         <v>93796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>131</v>
@@ -7803,13 +7764,13 @@
         <v>84364</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="M24" s="7">
         <v>225</v>
@@ -7818,13 +7779,13 @@
         <v>178161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7839,13 +7800,13 @@
         <v>37648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>658</v>
+        <v>546</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -7854,13 +7815,13 @@
         <v>47700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>550</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>442</v>
+        <v>655</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -7869,13 +7830,13 @@
         <v>85348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>661</v>
+        <v>52</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>431</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>388</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7890,13 +7851,13 @@
         <v>63521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>664</v>
+        <v>449</v>
       </c>
       <c r="H26" s="7">
         <v>125</v>
@@ -7905,13 +7866,13 @@
         <v>96823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>665</v>
+        <v>580</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="M26" s="7">
         <v>183</v>
@@ -7920,13 +7881,13 @@
         <v>160344</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>659</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>667</v>
+        <v>660</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>668</v>
+        <v>661</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7941,13 +7902,13 @@
         <v>53116</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>669</v>
+        <v>662</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>125</v>
+        <v>601</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -7956,13 +7917,13 @@
         <v>48796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>617</v>
+        <v>664</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>456</v>
+        <v>378</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>671</v>
+        <v>440</v>
       </c>
       <c r="M27" s="7">
         <v>122</v>
@@ -7971,19 +7932,19 @@
         <v>101912</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="7">
         <v>4</v>
@@ -7992,13 +7953,13 @@
         <v>4521</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>676</v>
+        <v>669</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>100</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -8007,13 +7968,13 @@
         <v>17167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>678</v>
+        <v>172</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>680</v>
+        <v>48</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -8022,19 +7983,19 @@
         <v>21688</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>569</v>
+        <v>671</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C29" s="7">
         <v>137</v>
@@ -8043,13 +8004,13 @@
         <v>144553</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>230</v>
+        <v>675</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>684</v>
+        <v>350</v>
       </c>
       <c r="H29" s="7">
         <v>233</v>
@@ -8058,13 +8019,13 @@
         <v>175224</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -8073,13 +8034,13 @@
         <v>319777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>689</v>
+        <v>224</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8094,28 +8055,28 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H30" s="7">
         <v>999</v>
       </c>
       <c r="I30" s="7">
-        <v>710042</v>
+        <v>710043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M30" s="7">
         <v>1680</v>
@@ -8124,13 +8085,13 @@
         <v>1383082</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8147,13 +8108,13 @@
         <v>953744</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>629</v>
+        <v>683</v>
       </c>
       <c r="H31" s="7">
         <v>1273</v>
@@ -8162,13 +8123,13 @@
         <v>853078</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="M31" s="7">
         <v>2311</v>
@@ -8177,13 +8138,13 @@
         <v>1806822</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8198,13 +8159,13 @@
         <v>385674</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>700</v>
+        <v>56</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>701</v>
+        <v>486</v>
       </c>
       <c r="H32" s="7">
         <v>587</v>
@@ -8213,13 +8174,13 @@
         <v>409290</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>702</v>
+        <v>691</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>704</v>
+        <v>484</v>
       </c>
       <c r="M32" s="7">
         <v>985</v>
@@ -8228,13 +8189,13 @@
         <v>794964</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>705</v>
+        <v>533</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>706</v>
+        <v>693</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>307</v>
+        <v>114</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8249,13 +8210,13 @@
         <v>417990</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>707</v>
+        <v>694</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>708</v>
+        <v>695</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>709</v>
+        <v>183</v>
       </c>
       <c r="H33" s="7">
         <v>698</v>
@@ -8264,13 +8225,13 @@
         <v>462479</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>488</v>
+        <v>697</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>711</v>
+        <v>698</v>
       </c>
       <c r="M33" s="7">
         <v>1112</v>
@@ -8279,13 +8240,13 @@
         <v>880469</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>712</v>
+        <v>699</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>440</v>
+        <v>700</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8300,13 +8261,13 @@
         <v>151065</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>703</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="H34" s="7">
         <v>282</v>
@@ -8315,13 +8276,13 @@
         <v>196163</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>458</v>
+        <v>47</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>207</v>
+        <v>706</v>
       </c>
       <c r="M34" s="7">
         <v>428</v>
@@ -8333,10 +8294,10 @@
         <v>61</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8351,13 +8312,13 @@
         <v>240483</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>315</v>
+        <v>708</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="H35" s="7">
         <v>491</v>
@@ -8366,13 +8327,13 @@
         <v>443304</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>721</v>
+        <v>667</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="M35" s="7">
         <v>732</v>
@@ -8381,13 +8342,13 @@
         <v>683787</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8402,13 +8363,13 @@
         <v>169528</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>725</v>
+        <v>135</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>727</v>
+        <v>666</v>
       </c>
       <c r="H36" s="7">
         <v>236</v>
@@ -8420,10 +8381,10 @@
         <v>24</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>728</v>
+        <v>123</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
       <c r="M36" s="7">
         <v>375</v>
@@ -8432,19 +8393,19 @@
         <v>341953</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>730</v>
+        <v>360</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>718</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" s="7">
         <v>29</v>
@@ -8453,13 +8414,13 @@
         <v>81942</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>731</v>
+        <v>719</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>732</v>
+        <v>555</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>447</v>
+        <v>306</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -8468,13 +8429,13 @@
         <v>49629</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>733</v>
+        <v>720</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>734</v>
+        <v>721</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>735</v>
+        <v>722</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -8483,19 +8444,19 @@
         <v>131571</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>736</v>
+        <v>723</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>737</v>
+        <v>170</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>724</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C38" s="7">
         <v>949</v>
@@ -8504,13 +8465,13 @@
         <v>960734</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>738</v>
+        <v>725</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>739</v>
+        <v>726</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>740</v>
+        <v>727</v>
       </c>
       <c r="H38" s="7">
         <v>1695</v>
@@ -8519,13 +8480,13 @@
         <v>1191212</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>741</v>
+        <v>728</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>742</v>
+        <v>729</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>743</v>
+        <v>730</v>
       </c>
       <c r="M38" s="7">
         <v>2644</v>
@@ -8534,13 +8495,13 @@
         <v>2151946</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>744</v>
+        <v>731</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>745</v>
+        <v>732</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>746</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,13 +8516,13 @@
         <v>3361160</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H39" s="7">
         <v>5328</v>
@@ -8570,13 +8531,13 @@
         <v>3777579</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="M39" s="7">
         <v>8682</v>
@@ -8585,18 +8546,18 @@
         <v>7138739</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBAEA310-8E13-472B-B60A-28541456091E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3F97AAA-AC1C-4402-8AFA-243A4A9FD009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1AD6E10D-BBF9-4ECB-B4B7-1D3CCB3721CE}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{033DED51-CB5A-4494-89A1-531F79B30E9D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="731">
   <si>
     <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,2142 +76,2136 @@
     <t>29,95%</t>
   </si>
   <si>
-    <t>26,98%</t>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,83%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>49,26%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>37,99%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>48,12%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>60,05%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>48,53%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>31,97%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>42,71%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>44,54%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>34,35%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>35,16%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>33,5%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>26,87%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>37,8%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>44,14%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>44,97%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
   </si>
   <si>
     <t>33,09%</t>
   </si>
   <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
   </si>
   <si>
     <t>3,67%</t>
   </si>
   <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>18,27%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>25,43%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
   </si>
   <si>
     <t>10,26%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>43,54%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
   </si>
   <si>
     <t>5,04%</t>
   </si>
   <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>54,02%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,8%</t>
-  </si>
-  <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>18,13%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,06%</t>
   </si>
   <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>39,25%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>48,41%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>48,78%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>41,33%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>31,77%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,45%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>39,69%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>26,72%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>33,42%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>31,55%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>25,21%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>34,69%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>37,93%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>35,2%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
     <t>5,06%</t>
   </si>
   <si>
@@ -2237,9 +2231,6 @@
   </si>
   <si>
     <t>28,25%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
   </si>
 </sst>
 </file>
@@ -2651,7 +2642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187D730F-3768-4D98-9453-EC4A94B9E98E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06619-CCA2-47D9-9CB7-DA533D67CE92}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3012,16 +3003,16 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>44</v>
@@ -3030,13 +3021,13 @@
         <v>47277</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="G9" s="7" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -3045,13 +3036,13 @@
         <v>102737</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M9" s="7">
         <v>139</v>
@@ -3060,19 +3051,19 @@
         <v>150014</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
         <v>22</v>
@@ -3081,13 +3072,13 @@
         <v>23273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H10" s="7">
         <v>39</v>
@@ -3096,13 +3087,13 @@
         <v>40004</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -3111,19 +3102,19 @@
         <v>63277</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7">
         <v>315</v>
@@ -3132,13 +3123,13 @@
         <v>330293</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" s="7">
         <v>510</v>
@@ -3147,13 +3138,13 @@
         <v>546539</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M11" s="7">
         <v>825</v>
@@ -3162,13 +3153,13 @@
         <v>876833</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,13 +3174,13 @@
         <v>972575</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" s="7">
         <v>1247</v>
@@ -3198,13 +3189,13 @@
         <v>1337796</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M12" s="7">
         <v>2153</v>
@@ -3213,18 +3204,18 @@
         <v>2310372</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3236,13 +3227,13 @@
         <v>350871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H13" s="7">
         <v>331</v>
@@ -3251,13 +3242,13 @@
         <v>351049</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M13" s="7">
         <v>662</v>
@@ -3266,13 +3257,13 @@
         <v>701921</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3278,13 @@
         <v>44619</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -3302,13 +3293,13 @@
         <v>53008</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3317,13 +3308,13 @@
         <v>97627</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3329,13 @@
         <v>183550</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H15" s="7">
         <v>239</v>
@@ -3353,13 +3344,13 @@
         <v>259180</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
@@ -3368,13 +3359,13 @@
         <v>442730</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3389,10 +3380,10 @@
         <v>76639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>119</v>
@@ -3422,10 +3413,10 @@
         <v>123</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,10 +3431,10 @@
         <v>116575</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>29</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>127</v>
@@ -3482,7 +3473,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7">
         <v>113</v>
@@ -3527,13 +3518,13 @@
         <v>141</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7">
         <v>52</v>
@@ -3542,13 +3533,13 @@
         <v>55332</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -3557,13 +3548,13 @@
         <v>58926</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -3584,7 +3575,7 @@
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7">
         <v>966</v>
@@ -3644,13 +3635,13 @@
         <v>1963957</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>1634</v>
@@ -3659,13 +3650,13 @@
         <v>1755909</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>3490</v>
@@ -3674,13 +3665,13 @@
         <v>3719866</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,7 +3745,7 @@
         <v>170</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>125</v>
+        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3763,13 +3754,13 @@
         <v>17978</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3778,13 +3769,13 @@
         <v>29246</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>118</v>
+        <v>175</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3799,13 +3790,13 @@
         <v>47016</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -3814,13 +3805,13 @@
         <v>58898</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -3829,13 +3820,13 @@
         <v>105914</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,10 +3844,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -3865,13 +3856,13 @@
         <v>26098</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -3880,13 +3871,13 @@
         <v>48060</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>187</v>
+        <v>72</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,13 +3892,13 @@
         <v>29024</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>74</v>
+        <v>195</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -3916,13 +3907,13 @@
         <v>46321</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -3931,19 +3922,19 @@
         <v>75345</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -3952,13 +3943,13 @@
         <v>29191</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -3967,13 +3958,13 @@
         <v>43147</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -3982,19 +3973,19 @@
         <v>72338</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7">
         <v>10</v>
@@ -4003,13 +3994,13 @@
         <v>9202</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>208</v>
+        <v>25</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4018,13 +4009,13 @@
         <v>18574</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -4033,19 +4024,19 @@
         <v>27776</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7">
         <v>243</v>
@@ -4054,13 +4045,13 @@
         <v>264756</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>146</v>
@@ -4069,13 +4060,13 @@
         <v>157823</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>389</v>
@@ -4084,13 +4075,13 @@
         <v>422579</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,13 +4096,13 @@
         <v>481181</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" s="7">
         <v>412</v>
@@ -4120,13 +4111,13 @@
         <v>458631</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>850</v>
@@ -4135,13 +4126,13 @@
         <v>939812</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4149,13 @@
         <v>710902</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -4173,13 +4164,13 @@
         <v>694434</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>162</v>
+        <v>232</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="M31" s="7">
         <v>1303</v>
@@ -4188,13 +4179,13 @@
         <v>1405336</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4200,13 @@
         <v>85707</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>118</v>
+        <v>239</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -4224,13 +4215,13 @@
         <v>132042</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>234</v>
+        <v>190</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="M32" s="7">
         <v>198</v>
@@ -4239,13 +4230,13 @@
         <v>217749</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4260,13 +4251,13 @@
         <v>360243</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H33" s="7">
         <v>438</v>
@@ -4275,13 +4266,13 @@
         <v>479069</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M33" s="7">
         <v>777</v>
@@ -4290,13 +4281,13 @@
         <v>839312</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4311,13 +4302,13 @@
         <v>143407</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -4326,13 +4317,13 @@
         <v>150651</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>252</v>
+        <v>61</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M34" s="7">
         <v>269</v>
@@ -4341,13 +4332,13 @@
         <v>294058</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4362,13 +4353,13 @@
         <v>221760</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>46</v>
+        <v>261</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="H35" s="7">
         <v>272</v>
@@ -4377,13 +4368,13 @@
         <v>298296</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M35" s="7">
         <v>477</v>
@@ -4392,19 +4383,19 @@
         <v>520056</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>190</v>
+        <v>266</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>139</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7">
         <v>183</v>
@@ -4413,13 +4404,13 @@
         <v>196397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H36" s="7">
         <v>250</v>
@@ -4428,13 +4419,13 @@
         <v>265411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -4443,19 +4434,19 @@
         <v>461809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7">
         <v>84</v>
@@ -4464,13 +4455,13 @@
         <v>87807</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="H37" s="7">
         <v>111</v>
@@ -4479,13 +4470,13 @@
         <v>117504</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>272</v>
+        <v>42</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="M37" s="7">
         <v>195</v>
@@ -4494,19 +4485,19 @@
         <v>205311</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>42</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="7">
         <v>1524</v>
@@ -4515,13 +4506,13 @@
         <v>1611491</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="H38" s="7">
         <v>1317</v>
@@ -4530,13 +4521,13 @@
         <v>1414928</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M38" s="7">
         <v>2841</v>
@@ -4545,13 +4536,13 @@
         <v>3026419</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,13 +4557,13 @@
         <v>3417714</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" s="7">
         <v>3293</v>
@@ -4581,13 +4572,13 @@
         <v>3552336</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M39" s="7">
         <v>6493</v>
@@ -4596,18 +4587,18 @@
         <v>6970050</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4626,7 +4617,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E451B5B-7970-4F60-ADF2-8517F84512F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40EF187-14B2-4759-A072-561A6D8D98A2}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4643,7 +4634,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4750,13 +4741,13 @@
         <v>216675</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -4765,13 +4756,13 @@
         <v>207292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M4" s="7">
         <v>410</v>
@@ -4780,13 +4771,13 @@
         <v>423967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4801,13 +4792,13 @@
         <v>30022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>146</v>
+        <v>76</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>297</v>
+        <v>67</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4816,13 +4807,13 @@
         <v>39038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4831,13 +4822,13 @@
         <v>69060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>200</v>
+        <v>305</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,13 +4843,13 @@
         <v>87032</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>130</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="H6" s="7">
         <v>90</v>
@@ -4867,13 +4858,13 @@
         <v>98015</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="M6" s="7">
         <v>177</v>
@@ -4882,13 +4873,13 @@
         <v>185047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4894,13 @@
         <v>24531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -4918,13 +4909,13 @@
         <v>49480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -4933,13 +4924,13 @@
         <v>74011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>319</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4945,13 @@
         <v>39676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -4969,13 +4960,13 @@
         <v>87947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -4984,19 +4975,19 @@
         <v>127622</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>48</v>
@@ -5005,13 +4996,13 @@
         <v>48877</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -5020,13 +5011,13 @@
         <v>49806</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -5035,19 +5026,19 @@
         <v>98683</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
         <v>12</v>
@@ -5056,13 +5047,13 @@
         <v>12285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>335</v>
+        <v>303</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5071,13 +5062,13 @@
         <v>20199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>22</v>
+        <v>337</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5086,19 +5077,19 @@
         <v>32484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7">
         <v>300</v>
@@ -5107,13 +5098,13 @@
         <v>295251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="H11" s="7">
         <v>388</v>
@@ -5122,13 +5113,13 @@
         <v>442883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>344</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="M11" s="7">
         <v>688</v>
@@ -5137,13 +5128,13 @@
         <v>738133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5158,13 +5149,13 @@
         <v>754347</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" s="7">
         <v>892</v>
@@ -5173,13 +5164,13 @@
         <v>994660</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M12" s="7">
         <v>1654</v>
@@ -5188,18 +5179,18 @@
         <v>1749007</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5211,13 +5202,13 @@
         <v>565735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="H13" s="7">
         <v>480</v>
@@ -5226,13 +5217,13 @@
         <v>492755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M13" s="7">
         <v>1015</v>
@@ -5241,13 +5232,13 @@
         <v>1058490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5253,13 @@
         <v>79581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5277,13 +5268,13 @@
         <v>67692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>362</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>363</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -5292,13 +5283,13 @@
         <v>147272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>238</v>
+        <v>364</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>251</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5304,13 @@
         <v>264852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="H15" s="7">
         <v>251</v>
@@ -5328,13 +5319,13 @@
         <v>261264</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>369</v>
+        <v>112</v>
       </c>
       <c r="M15" s="7">
         <v>499</v>
@@ -5343,13 +5334,13 @@
         <v>526115</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5355,13 @@
         <v>79596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>375</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -5379,13 +5370,13 @@
         <v>104215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -5394,13 +5385,13 @@
         <v>183810</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5415,13 +5406,13 @@
         <v>136488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>265</v>
+        <v>381</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5430,13 +5421,13 @@
         <v>147409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>376</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -5445,19 +5436,19 @@
         <v>283897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7">
         <v>127</v>
@@ -5466,13 +5457,13 @@
         <v>135549</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>385</v>
+        <v>129</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -5481,13 +5472,13 @@
         <v>150362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>326</v>
+        <v>392</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M18" s="7">
         <v>271</v>
@@ -5496,19 +5487,19 @@
         <v>285911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>51</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7">
         <v>53</v>
@@ -5517,13 +5508,13 @@
         <v>58319</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>397</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>398</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>329</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -5532,13 +5523,13 @@
         <v>78682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>392</v>
+        <v>280</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>393</v>
+        <v>175</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5547,19 +5538,19 @@
         <v>137001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>42</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7">
         <v>713</v>
@@ -5568,13 +5559,13 @@
         <v>756266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="H20" s="7">
         <v>650</v>
@@ -5583,13 +5574,13 @@
         <v>685923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="M20" s="7">
         <v>1363</v>
@@ -5598,13 +5589,13 @@
         <v>1442188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5619,13 +5610,13 @@
         <v>2076385</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>1908</v>
@@ -5634,13 +5625,13 @@
         <v>1988300</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>3860</v>
@@ -5649,13 +5640,13 @@
         <v>4064685</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5672,13 +5663,13 @@
         <v>164879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -5687,13 +5678,13 @@
         <v>170390</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>349</v>
+        <v>415</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -5702,13 +5693,13 @@
         <v>335269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5723,13 +5714,13 @@
         <v>21963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>210</v>
+        <v>421</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5738,13 +5729,13 @@
         <v>8727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>236</v>
+        <v>425</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -5753,13 +5744,13 @@
         <v>30690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>417</v>
+        <v>426</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>418</v>
+        <v>427</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5774,13 +5765,13 @@
         <v>50947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>260</v>
+        <v>428</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>420</v>
+        <v>323</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -5789,13 +5780,13 @@
         <v>60512</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M24" s="7">
         <v>106</v>
@@ -5804,13 +5795,13 @@
         <v>111459</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>425</v>
+        <v>202</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5816,13 @@
         <v>18472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>428</v>
+        <v>281</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5840,13 +5831,13 @@
         <v>27439</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>433</v>
+        <v>438</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -5855,13 +5846,13 @@
         <v>45911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>434</v>
+        <v>439</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>440</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5867,13 @@
         <v>47415</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>436</v>
+        <v>328</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5891,13 +5882,13 @@
         <v>62311</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -5906,19 +5897,19 @@
         <v>109727</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>43</v>
@@ -5927,13 +5918,13 @@
         <v>48046</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>445</v>
+        <v>393</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>447</v>
+        <v>306</v>
       </c>
       <c r="H27" s="7">
         <v>49</v>
@@ -5942,13 +5933,13 @@
         <v>52100</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -5957,19 +5948,19 @@
         <v>100145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>451</v>
+        <v>136</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>452</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7">
         <v>17</v>
@@ -5978,13 +5969,13 @@
         <v>18288</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5993,13 +5984,13 @@
         <v>16200</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>456</v>
+        <v>380</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -6008,19 +5999,19 @@
         <v>34487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>457</v>
+        <v>425</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>73</v>
+        <v>455</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>363</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7">
         <v>165</v>
@@ -6029,13 +6020,13 @@
         <v>176877</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>459</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>460</v>
       </c>
       <c r="H29" s="7">
         <v>149</v>
@@ -6044,13 +6035,13 @@
         <v>151461</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="M29" s="7">
         <v>314</v>
@@ -6059,13 +6050,13 @@
         <v>328339</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>464</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6080,13 +6071,13 @@
         <v>546886</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" s="7">
         <v>526</v>
@@ -6095,13 +6086,13 @@
         <v>549140</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>1027</v>
@@ -6110,13 +6101,13 @@
         <v>1096026</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6133,13 +6124,13 @@
         <v>947288</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>467</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>468</v>
+        <v>223</v>
       </c>
       <c r="H31" s="7">
         <v>833</v>
@@ -6148,13 +6139,13 @@
         <v>870437</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>469</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>470</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>471</v>
       </c>
       <c r="M31" s="7">
         <v>1734</v>
@@ -6163,13 +6154,13 @@
         <v>1817726</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>472</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>473</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6184,13 +6175,13 @@
         <v>131565</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>475</v>
+        <v>313</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H32" s="7">
         <v>108</v>
@@ -6199,13 +6190,13 @@
         <v>115456</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>478</v>
+        <v>279</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>479</v>
+        <v>280</v>
       </c>
       <c r="M32" s="7">
         <v>231</v>
@@ -6214,13 +6205,13 @@
         <v>247021</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>249</v>
+        <v>475</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>413</v>
+        <v>476</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6235,13 +6226,13 @@
         <v>402830</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>371</v>
+        <v>477</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>480</v>
+        <v>116</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="H33" s="7">
         <v>397</v>
@@ -6250,13 +6241,13 @@
         <v>419791</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M33" s="7">
         <v>782</v>
@@ -6265,13 +6256,13 @@
         <v>822621</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6286,13 +6277,13 @@
         <v>122598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>314</v>
+        <v>72</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>28</v>
+        <v>484</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="H34" s="7">
         <v>174</v>
@@ -6301,13 +6292,13 @@
         <v>181134</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>488</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>489</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M34" s="7">
         <v>290</v>
@@ -6316,13 +6307,13 @@
         <v>303732</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>490</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>479</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>119</v>
+        <v>491</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,10 +6328,10 @@
         <v>223579</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>492</v>
+        <v>141</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>493</v>
@@ -6355,10 +6346,10 @@
         <v>494</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>303</v>
+        <v>496</v>
       </c>
       <c r="M35" s="7">
         <v>490</v>
@@ -6367,19 +6358,19 @@
         <v>521246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7">
         <v>218</v>
@@ -6388,13 +6379,13 @@
         <v>232472</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="H36" s="7">
         <v>238</v>
@@ -6403,13 +6394,13 @@
         <v>252268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>176</v>
+        <v>503</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="M36" s="7">
         <v>456</v>
@@ -6418,19 +6409,19 @@
         <v>484739</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7">
         <v>82</v>
@@ -6439,13 +6430,13 @@
         <v>88892</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="H37" s="7">
         <v>111</v>
@@ -6454,13 +6445,13 @@
         <v>115080</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>27</v>
+        <v>305</v>
       </c>
       <c r="M37" s="7">
         <v>193</v>
@@ -6469,19 +6460,19 @@
         <v>203972</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>274</v>
+        <v>187</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>509</v>
+        <v>147</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>428</v>
+        <v>400</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="7">
         <v>1178</v>
@@ -6490,13 +6481,13 @@
         <v>1228394</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="H38" s="7">
         <v>1187</v>
@@ -6505,13 +6496,13 @@
         <v>1280267</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="M38" s="7">
         <v>2365</v>
@@ -6520,13 +6511,13 @@
         <v>2508660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6541,13 +6532,13 @@
         <v>3377618</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" s="7">
         <v>3326</v>
@@ -6556,13 +6547,13 @@
         <v>3532100</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M39" s="7">
         <v>6541</v>
@@ -6571,18 +6562,18 @@
         <v>6909718</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -6601,7 +6592,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6B0E5-DBFF-4624-AF56-51F879DAB4B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD039B5-DF53-46DE-87D5-1E546A8F9DDE}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6618,7 +6609,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6725,13 +6716,13 @@
         <v>160198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="H4" s="7">
         <v>222</v>
@@ -6740,13 +6731,13 @@
         <v>128663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="M4" s="7">
         <v>427</v>
@@ -6755,13 +6746,13 @@
         <v>288861</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>525</v>
+        <v>233</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6767,13 @@
         <v>50299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -6791,13 +6782,13 @@
         <v>82964</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>533</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -6806,13 +6797,13 @@
         <v>133263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6818,13 @@
         <v>47275</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="H6" s="7">
         <v>150</v>
@@ -6842,13 +6833,13 @@
         <v>80297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -6857,13 +6848,13 @@
         <v>127572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>139</v>
+        <v>543</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6869,13 @@
         <v>18322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>208</v>
+        <v>545</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>143</v>
+        <v>435</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -6893,13 +6884,13 @@
         <v>24089</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>76</v>
+        <v>547</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -6908,13 +6899,13 @@
         <v>42411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6929,13 +6920,13 @@
         <v>29146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>545</v>
+        <v>320</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
@@ -6944,13 +6935,13 @@
         <v>51512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>391</v>
+        <v>64</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>550</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>547</v>
+        <v>383</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -6959,19 +6950,19 @@
         <v>80658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>551</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>548</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>127</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="7">
         <v>16</v>
@@ -6980,13 +6971,13 @@
         <v>16154</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -6995,13 +6986,13 @@
         <v>24800</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>551</v>
+        <v>104</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -7010,19 +7001,19 @@
         <v>40953</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C10" s="7">
         <v>3</v>
@@ -7031,13 +7022,13 @@
         <v>2187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7046,13 +7037,13 @@
         <v>6653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7061,19 +7052,19 @@
         <v>8840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7">
         <v>281</v>
@@ -7082,13 +7073,13 @@
         <v>217228</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="H11" s="7">
         <v>720</v>
@@ -7097,13 +7088,13 @@
         <v>430081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -7112,13 +7103,13 @@
         <v>647308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7133,13 +7124,13 @@
         <v>540809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" s="7">
         <v>1419</v>
@@ -7148,13 +7139,13 @@
         <v>829059</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M12" s="7">
         <v>2109</v>
@@ -7163,18 +7154,18 @@
         <v>1369867</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -7186,13 +7177,13 @@
         <v>597639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="H13" s="7">
         <v>778</v>
@@ -7201,13 +7192,13 @@
         <v>536594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="M13" s="7">
         <v>1393</v>
@@ -7216,13 +7207,13 @@
         <v>1134233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7237,13 +7228,13 @@
         <v>255397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="H14" s="7">
         <v>370</v>
@@ -7252,13 +7243,13 @@
         <v>274179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="M14" s="7">
         <v>622</v>
@@ -7267,13 +7258,13 @@
         <v>529576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>586</v>
+        <v>478</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7288,13 +7279,13 @@
         <v>276919</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="H15" s="7">
         <v>417</v>
@@ -7303,13 +7294,13 @@
         <v>297818</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="M15" s="7">
         <v>680</v>
@@ -7318,13 +7309,13 @@
         <v>574736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>116</v>
+        <v>594</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7339,13 +7330,13 @@
         <v>95095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
@@ -7354,13 +7345,13 @@
         <v>124373</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
@@ -7369,13 +7360,13 @@
         <v>219469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>363</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7390,13 +7381,13 @@
         <v>147816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -7405,13 +7396,13 @@
         <v>294969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>605</v>
+        <v>433</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -7420,19 +7411,19 @@
         <v>442784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="7">
         <v>73</v>
@@ -7441,13 +7432,13 @@
         <v>100259</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>476</v>
+        <v>610</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>610</v>
+        <v>274</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
@@ -7456,13 +7447,13 @@
         <v>98829</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>432</v>
+        <v>319</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>190</v>
+        <v>612</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -7471,19 +7462,19 @@
         <v>199088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C19" s="7">
         <v>22</v>
@@ -7492,13 +7483,13 @@
         <v>75234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -7507,13 +7498,13 @@
         <v>25809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>618</v>
+        <v>71</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -7522,19 +7513,19 @@
         <v>101043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>103</v>
+        <v>620</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>620</v>
+        <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C20" s="7">
         <v>531</v>
@@ -7543,7 +7534,7 @@
         <v>598953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>621</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>622</v>
@@ -7594,13 +7585,13 @@
         <v>2147312</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>2910</v>
@@ -7609,13 +7600,13 @@
         <v>2238478</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M21" s="7">
         <v>4893</v>
@@ -7624,13 +7615,13 @@
         <v>4385790</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7650,10 +7641,10 @@
         <v>630</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>631</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -7698,13 +7689,13 @@
         <v>79977</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>638</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>639</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -7713,13 +7704,13 @@
         <v>52147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>640</v>
+        <v>142</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="M23" s="7">
         <v>164</v>
@@ -7728,13 +7719,13 @@
         <v>132124</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>641</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>643</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7749,13 +7740,13 @@
         <v>93796</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>644</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="H24" s="7">
         <v>131</v>
@@ -7764,13 +7755,13 @@
         <v>84364</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>638</v>
+        <v>429</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M24" s="7">
         <v>225</v>
@@ -7779,13 +7770,13 @@
         <v>178161</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>649</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>650</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7800,13 +7791,13 @@
         <v>37648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>653</v>
+        <v>507</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -7815,13 +7806,13 @@
         <v>47700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -7833,10 +7824,10 @@
         <v>52</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>431</v>
+        <v>399</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7851,13 +7842,13 @@
         <v>63521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>656</v>
+        <v>265</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>449</v>
+        <v>654</v>
       </c>
       <c r="H26" s="7">
         <v>125</v>
@@ -7866,13 +7857,13 @@
         <v>96823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="M26" s="7">
         <v>183</v>
@@ -7881,19 +7872,19 @@
         <v>160344</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>50</v>
@@ -7902,13 +7893,13 @@
         <v>53116</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -7917,13 +7908,13 @@
         <v>48796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>664</v>
+        <v>193</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>378</v>
+        <v>46</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>440</v>
+        <v>661</v>
       </c>
       <c r="M27" s="7">
         <v>122</v>
@@ -7932,19 +7923,19 @@
         <v>101912</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>666</v>
+        <v>501</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C28" s="7">
         <v>4</v>
@@ -7953,13 +7944,13 @@
         <v>4521</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>100</v>
+        <v>666</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -7968,13 +7959,13 @@
         <v>17167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>172</v>
+        <v>667</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>48</v>
+        <v>669</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -7983,19 +7974,19 @@
         <v>21688</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>671</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>672</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C29" s="7">
         <v>137</v>
@@ -8004,13 +7995,13 @@
         <v>144553</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>674</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>675</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H29" s="7">
         <v>233</v>
@@ -8019,13 +8010,13 @@
         <v>175224</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>677</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>678</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -8034,13 +8025,13 @@
         <v>319777</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>679</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8055,13 +8046,13 @@
         <v>673039</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" s="7">
         <v>999</v>
@@ -8070,13 +8061,13 @@
         <v>710043</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M30" s="7">
         <v>1680</v>
@@ -8085,13 +8076,13 @@
         <v>1383082</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8108,13 +8099,13 @@
         <v>953744</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>682</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>683</v>
       </c>
       <c r="H31" s="7">
         <v>1273</v>
@@ -8123,13 +8114,13 @@
         <v>853078</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>685</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>686</v>
       </c>
       <c r="M31" s="7">
         <v>2311</v>
@@ -8138,13 +8129,13 @@
         <v>1806822</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>687</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>688</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8159,13 +8150,13 @@
         <v>385674</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>690</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>486</v>
+        <v>691</v>
       </c>
       <c r="H32" s="7">
         <v>587</v>
@@ -8174,13 +8165,13 @@
         <v>409290</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="M32" s="7">
         <v>985</v>
@@ -8189,13 +8180,13 @@
         <v>794964</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>533</v>
+        <v>482</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8210,13 +8201,13 @@
         <v>417990</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>183</v>
+        <v>697</v>
       </c>
       <c r="H33" s="7">
         <v>698</v>
@@ -8225,13 +8216,13 @@
         <v>462479</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="M33" s="7">
         <v>1112</v>
@@ -8240,13 +8231,13 @@
         <v>880469</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8261,13 +8252,13 @@
         <v>151065</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="H34" s="7">
         <v>282</v>
@@ -8276,13 +8267,13 @@
         <v>196163</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>47</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>706</v>
+        <v>26</v>
       </c>
       <c r="M34" s="7">
         <v>428</v>
@@ -8291,10 +8282,10 @@
         <v>347228</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="Q34" s="7" t="s">
         <v>49</v>
@@ -8312,13 +8303,13 @@
         <v>240483</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>708</v>
+        <v>127</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>709</v>
+        <v>387</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>710</v>
+        <v>499</v>
       </c>
       <c r="H35" s="7">
         <v>491</v>
@@ -8327,13 +8318,13 @@
         <v>443304</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>711</v>
+        <v>373</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="M35" s="7">
         <v>732</v>
@@ -8342,19 +8333,19 @@
         <v>683787</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>714</v>
+        <v>396</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7">
         <v>139</v>
@@ -8363,13 +8354,13 @@
         <v>169528</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>135</v>
+        <v>712</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>666</v>
+        <v>501</v>
       </c>
       <c r="H36" s="7">
         <v>236</v>
@@ -8384,7 +8375,7 @@
         <v>123</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="M36" s="7">
         <v>375</v>
@@ -8393,19 +8384,19 @@
         <v>341953</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>360</v>
+        <v>260</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>214</v>
+        <v>715</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C37" s="7">
         <v>29</v>
@@ -8414,13 +8405,13 @@
         <v>81942</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>306</v>
+        <v>110</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -8429,13 +8420,13 @@
         <v>49629</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>720</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>721</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>722</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -8444,19 +8435,19 @@
         <v>131571</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>723</v>
+        <v>427</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>170</v>
+        <v>721</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="7">
         <v>949</v>
@@ -8465,13 +8456,13 @@
         <v>960734</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>726</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>727</v>
       </c>
       <c r="H38" s="7">
         <v>1695</v>
@@ -8480,13 +8471,13 @@
         <v>1191212</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>728</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>729</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>730</v>
       </c>
       <c r="M38" s="7">
         <v>2644</v>
@@ -8495,13 +8486,13 @@
         <v>2151946</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>733</v>
+        <v>461</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8516,13 +8507,13 @@
         <v>3361160</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H39" s="7">
         <v>5328</v>
@@ -8531,13 +8522,13 @@
         <v>3777579</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M39" s="7">
         <v>8682</v>
@@ -8546,18 +8537,18 @@
         <v>7138739</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3F97AAA-AC1C-4402-8AFA-243A4A9FD009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49B87EB-11E3-4CB9-823F-CE0FCE875C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{033DED51-CB5A-4494-89A1-531F79B30E9D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4851987A-0FFF-476E-91C5-953B076943CE}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="747">
   <si>
     <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -76,2161 +76,2209 @@
     <t>29,95%</t>
   </si>
   <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
   </si>
   <si>
     <t>18,96%</t>
   </si>
   <si>
-    <t>16,89%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>Ningun dia/semana</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>30,8%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>49,53%</t>
+  </si>
+  <si>
+    <t>54,25%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>44,72%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>49,85%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>39,0%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
+  </si>
+  <si>
+    <t>41,4%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
   </si>
   <si>
     <t>21,0%</t>
   </si>
   <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>47,15%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>42,78%</t>
+  </si>
+  <si>
+    <t>44,53%</t>
+  </si>
+  <si>
+    <t>41,52%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
   </si>
   <si>
     <t>25,35%</t>
   </si>
   <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
   </si>
   <si>
     <t>6,13%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>7,83%</t>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>33,93%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>35,48%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>37,13%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>34,66%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>34,76%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>27,58%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>36,37%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
+  </si>
+  <si>
+    <t>36,25%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>51,88%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>54,88%</t>
+  </si>
+  <si>
+    <t>47,25%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>27,83%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>33,1%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>30,16%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
   </si>
   <si>
     <t>6,17%</t>
   </si>
   <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
   </si>
   <si>
     <t>1,61%</t>
   </si>
   <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>Ningun dia/semana</t>
-  </si>
-  <si>
-    <t>33,96%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>43,29%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>14,76%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>51,75%</t>
-  </si>
-  <si>
-    <t>49,26%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>48,12%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>50,38%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
-  </si>
-  <si>
-    <t>41,39%</t>
-  </si>
-  <si>
-    <t>48,53%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>28,38%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
   </si>
   <si>
     <t>11,21%</t>
   </si>
   <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
   </si>
   <si>
     <t>4,79%</t>
   </si>
   <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>44,72%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>31,97%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>42,71%</t>
-  </si>
-  <si>
-    <t>44,53%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>44,54%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>25,19%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>34,35%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>34,5%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>31,03%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>30,59%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,84%</t>
   </si>
   <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>32,34%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>26,87%</t>
-  </si>
-  <si>
-    <t>32,84%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>36,37%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>35,07%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>44,14%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>44,97%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>15,48%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>25,12%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>29,38%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
+    <t>1,02%</t>
   </si>
   <si>
     <t>28,58%</t>
   </si>
   <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
+    <t>26,48%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
   </si>
   <si>
     <t>31,53%</t>
   </si>
   <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>28,25%</t>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
   </si>
 </sst>
 </file>
@@ -2642,7 +2690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D06619-CCA2-47D9-9CB7-DA533D67CE92}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F275787-3608-4178-B8FE-AC302134E777}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3003,16 +3051,16 @@
         <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>44</v>
@@ -3021,13 +3069,13 @@
         <v>47277</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7">
         <v>95</v>
@@ -3036,10 +3084,10 @@
         <v>102737</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="L9" s="7" t="s">
         <v>65</v>
@@ -3284,7 +3332,7 @@
         <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="H14" s="7">
         <v>48</v>
@@ -3293,13 +3341,13 @@
         <v>53008</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -3308,13 +3356,13 @@
         <v>97627</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3377,13 @@
         <v>183550</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H15" s="7">
         <v>239</v>
@@ -3344,13 +3392,13 @@
         <v>259180</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M15" s="7">
         <v>414</v>
@@ -3359,13 +3407,13 @@
         <v>442730</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3428,13 @@
         <v>76639</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>21</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -3395,13 +3443,13 @@
         <v>66047</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -3410,10 +3458,10 @@
         <v>142686</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>124</v>
@@ -3473,7 +3521,7 @@
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7">
         <v>113</v>
@@ -3539,7 +3587,7 @@
         <v>144</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>145</v>
+        <v>48</v>
       </c>
       <c r="H19" s="7">
         <v>55</v>
@@ -3548,13 +3596,13 @@
         <v>58926</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M19" s="7">
         <v>107</v>
@@ -3566,10 +3614,10 @@
         <v>21</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3584,13 +3632,13 @@
         <v>1016441</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H20" s="7">
         <v>661</v>
@@ -3599,13 +3647,13 @@
         <v>710566</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M20" s="7">
         <v>1627</v>
@@ -3614,13 +3662,13 @@
         <v>1727007</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,7 +3724,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3688,13 +3736,13 @@
         <v>68763</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H22" s="7">
         <v>79</v>
@@ -3703,13 +3751,13 @@
         <v>89792</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="M22" s="7">
         <v>139</v>
@@ -3718,13 +3766,13 @@
         <v>158555</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3739,13 +3787,13 @@
         <v>11267</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="G23" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>171</v>
       </c>
       <c r="H23" s="7">
         <v>17</v>
@@ -3754,13 +3802,13 @@
         <v>17978</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M23" s="7">
         <v>26</v>
@@ -3769,13 +3817,13 @@
         <v>29246</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3790,13 +3838,13 @@
         <v>47016</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>180</v>
       </c>
       <c r="H24" s="7">
         <v>51</v>
@@ -3805,13 +3853,13 @@
         <v>58898</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="M24" s="7">
         <v>94</v>
@@ -3820,13 +3868,13 @@
         <v>105914</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3844,10 +3892,10 @@
         <v>24</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="H25" s="7">
         <v>22</v>
@@ -3856,13 +3904,13 @@
         <v>26098</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="M25" s="7">
         <v>43</v>
@@ -3871,13 +3919,13 @@
         <v>48060</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3892,13 +3940,13 @@
         <v>29024</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -3907,13 +3955,13 @@
         <v>46321</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M26" s="7">
         <v>66</v>
@@ -3922,19 +3970,19 @@
         <v>75345</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7">
         <v>26</v>
@@ -3943,13 +3991,13 @@
         <v>29191</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H27" s="7">
         <v>40</v>
@@ -3958,13 +4006,13 @@
         <v>43147</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M27" s="7">
         <v>66</v>
@@ -3973,13 +4021,13 @@
         <v>72338</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>209</v>
+        <v>133</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3994,13 +4042,13 @@
         <v>9202</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>25</v>
+        <v>145</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -4009,13 +4057,13 @@
         <v>18574</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -4024,13 +4072,13 @@
         <v>27776</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4045,13 +4093,13 @@
         <v>264756</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H29" s="7">
         <v>146</v>
@@ -4060,13 +4108,13 @@
         <v>157823</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M29" s="7">
         <v>389</v>
@@ -4075,13 +4123,13 @@
         <v>422579</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4149,13 +4197,13 @@
         <v>710902</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="H31" s="7">
         <v>646</v>
@@ -4164,13 +4212,13 @@
         <v>694434</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="M31" s="7">
         <v>1303</v>
@@ -4179,13 +4227,13 @@
         <v>1405336</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4200,13 +4248,13 @@
         <v>85707</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="H32" s="7">
         <v>122</v>
@@ -4215,13 +4263,13 @@
         <v>132042</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>190</v>
+        <v>148</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>44</v>
+        <v>238</v>
       </c>
       <c r="M32" s="7">
         <v>198</v>
@@ -4230,13 +4278,13 @@
         <v>217749</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>243</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4251,13 +4299,13 @@
         <v>360243</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H33" s="7">
         <v>438</v>
@@ -4266,13 +4314,13 @@
         <v>479069</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M33" s="7">
         <v>777</v>
@@ -4281,13 +4329,13 @@
         <v>839312</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>251</v>
+        <v>32</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -4302,13 +4350,13 @@
         <v>143407</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>255</v>
+        <v>121</v>
       </c>
       <c r="H34" s="7">
         <v>137</v>
@@ -4317,13 +4365,13 @@
         <v>150651</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="M34" s="7">
         <v>269</v>
@@ -4332,13 +4380,13 @@
         <v>294058</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>259</v>
+        <v>119</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4356,10 +4404,10 @@
         <v>66</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>261</v>
+        <v>138</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="H35" s="7">
         <v>272</v>
@@ -4368,13 +4416,13 @@
         <v>298296</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>265</v>
+        <v>181</v>
       </c>
       <c r="M35" s="7">
         <v>477</v>
@@ -4383,19 +4431,19 @@
         <v>520056</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7">
         <v>183</v>
@@ -4404,13 +4452,13 @@
         <v>196397</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="H36" s="7">
         <v>250</v>
@@ -4419,13 +4467,13 @@
         <v>265411</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M36" s="7">
         <v>433</v>
@@ -4434,13 +4482,13 @@
         <v>461809</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4503,13 @@
         <v>87807</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>276</v>
+        <v>146</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>278</v>
+        <v>107</v>
       </c>
       <c r="H37" s="7">
         <v>111</v>
@@ -4470,13 +4518,13 @@
         <v>117504</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>42</v>
+        <v>269</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>280</v>
+        <v>171</v>
       </c>
       <c r="M37" s="7">
         <v>195</v>
@@ -4485,13 +4533,13 @@
         <v>205311</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>215</v>
+        <v>272</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4554,13 @@
         <v>1611491</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="H38" s="7">
         <v>1317</v>
@@ -4521,13 +4569,13 @@
         <v>1414928</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="M38" s="7">
         <v>2841</v>
@@ -4536,13 +4584,13 @@
         <v>3026419</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,7 +4646,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4617,7 +4665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40EF187-14B2-4759-A072-561A6D8D98A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8501D7-CF7F-4AE8-81DE-E87367C46E23}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4634,7 +4682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4741,13 +4789,13 @@
         <v>216675</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="H4" s="7">
         <v>190</v>
@@ -4756,13 +4804,13 @@
         <v>207292</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="M4" s="7">
         <v>410</v>
@@ -4771,13 +4819,13 @@
         <v>423967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4792,13 +4840,13 @@
         <v>30022</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>76</v>
+        <v>295</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="H5" s="7">
         <v>36</v>
@@ -4807,13 +4855,13 @@
         <v>39038</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
@@ -4822,13 +4870,13 @@
         <v>69060</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,13 +4891,13 @@
         <v>87032</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>130</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>90</v>
@@ -4858,13 +4906,13 @@
         <v>98015</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>177</v>
@@ -4873,13 +4921,13 @@
         <v>185047</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>65</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4894,13 +4942,13 @@
         <v>24531</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>74</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -4909,13 +4957,13 @@
         <v>49480</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>315</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -4924,13 +4972,13 @@
         <v>74011</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>319</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4945,13 +4993,13 @@
         <v>39676</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>323</v>
+        <v>136</v>
       </c>
       <c r="H8" s="7">
         <v>79</v>
@@ -4960,13 +5008,13 @@
         <v>87947</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>324</v>
+        <v>195</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -4975,19 +5023,19 @@
         <v>127622</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>174</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>48</v>
@@ -4996,13 +5044,13 @@
         <v>48877</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="H9" s="7">
         <v>45</v>
@@ -5011,13 +5059,13 @@
         <v>49806</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>323</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>316</v>
+        <v>119</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>93</v>
@@ -5026,13 +5074,13 @@
         <v>98683</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>332</v>
+        <v>141</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5095,13 @@
         <v>12285</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -5062,13 +5110,13 @@
         <v>20199</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="M10" s="7">
         <v>30</v>
@@ -5077,13 +5125,13 @@
         <v>32484</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>342</v>
+        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,13 +5146,13 @@
         <v>295251</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="H11" s="7">
         <v>388</v>
@@ -5113,13 +5161,13 @@
         <v>442883</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="M11" s="7">
         <v>688</v>
@@ -5128,13 +5176,13 @@
         <v>738133</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5250,13 @@
         <v>565735</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="H13" s="7">
         <v>480</v>
@@ -5217,13 +5265,13 @@
         <v>492755</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="M13" s="7">
         <v>1015</v>
@@ -5232,13 +5280,13 @@
         <v>1058490</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5301,13 @@
         <v>79581</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>361</v>
+        <v>21</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5268,13 +5316,13 @@
         <v>67692</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>355</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -5283,13 +5331,13 @@
         <v>147272</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>365</v>
+        <v>21</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>366</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,13 +5352,13 @@
         <v>264852</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="H15" s="7">
         <v>251</v>
@@ -5319,13 +5367,13 @@
         <v>261264</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>112</v>
+        <v>363</v>
       </c>
       <c r="M15" s="7">
         <v>499</v>
@@ -5334,13 +5382,13 @@
         <v>526115</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,13 +5403,13 @@
         <v>79596</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H16" s="7">
         <v>102</v>
@@ -5370,13 +5418,13 @@
         <v>104215</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="M16" s="7">
         <v>175</v>
@@ -5385,13 +5433,13 @@
         <v>183810</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>27</v>
+        <v>372</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5406,13 +5454,13 @@
         <v>136488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>381</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="H17" s="7">
         <v>141</v>
@@ -5421,13 +5469,13 @@
         <v>147409</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>64</v>
+        <v>377</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="M17" s="7">
         <v>269</v>
@@ -5436,19 +5484,19 @@
         <v>283897</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7">
         <v>127</v>
@@ -5457,13 +5505,13 @@
         <v>135549</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>129</v>
+        <v>382</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="H18" s="7">
         <v>144</v>
@@ -5472,13 +5520,13 @@
         <v>150362</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>392</v>
+        <v>320</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="M18" s="7">
         <v>271</v>
@@ -5487,13 +5535,13 @@
         <v>285911</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>396</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5508,13 +5556,13 @@
         <v>58319</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>398</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>72</v>
+        <v>390</v>
       </c>
       <c r="H19" s="7">
         <v>76</v>
@@ -5523,13 +5571,13 @@
         <v>78682</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>280</v>
+        <v>391</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>175</v>
+        <v>392</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="M19" s="7">
         <v>129</v>
@@ -5538,13 +5586,13 @@
         <v>137001</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>328</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5559,13 +5607,13 @@
         <v>756266</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="H20" s="7">
         <v>650</v>
@@ -5574,13 +5622,13 @@
         <v>685923</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="M20" s="7">
         <v>1363</v>
@@ -5589,13 +5637,13 @@
         <v>1442188</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5651,7 +5699,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5663,13 +5711,13 @@
         <v>164879</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="H22" s="7">
         <v>163</v>
@@ -5678,13 +5726,13 @@
         <v>170390</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="M22" s="7">
         <v>309</v>
@@ -5693,13 +5741,13 @@
         <v>335269</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5714,13 +5762,13 @@
         <v>21963</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="H23" s="7">
         <v>8</v>
@@ -5729,13 +5777,13 @@
         <v>8727</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="M23" s="7">
         <v>27</v>
@@ -5744,13 +5792,13 @@
         <v>30690</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>420</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5813,13 @@
         <v>50947</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>323</v>
+        <v>423</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="H24" s="7">
         <v>56</v>
@@ -5780,13 +5828,13 @@
         <v>60512</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="M24" s="7">
         <v>106</v>
@@ -5795,13 +5843,13 @@
         <v>111459</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>202</v>
+        <v>428</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>434</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5864,13 @@
         <v>18472</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>281</v>
+        <v>430</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H25" s="7">
         <v>26</v>
@@ -5831,13 +5879,13 @@
         <v>27439</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="M25" s="7">
         <v>44</v>
@@ -5846,13 +5894,13 @@
         <v>45911</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>175</v>
+        <v>437</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>440</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5915,13 @@
         <v>47415</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>328</v>
+        <v>438</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H26" s="7">
         <v>58</v>
@@ -5882,13 +5930,13 @@
         <v>62311</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="M26" s="7">
         <v>101</v>
@@ -5897,19 +5945,19 @@
         <v>109727</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7">
         <v>43</v>
@@ -5918,13 +5966,13 @@
         <v>48046</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>448</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>306</v>
+        <v>449</v>
       </c>
       <c r="H27" s="7">
         <v>49</v>
@@ -5933,13 +5981,13 @@
         <v>52100</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>450</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="M27" s="7">
         <v>92</v>
@@ -5948,13 +5996,13 @@
         <v>100145</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>451</v>
+        <v>184</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>136</v>
+        <v>453</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>161</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5969,13 +6017,13 @@
         <v>18288</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>398</v>
+        <v>175</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="H28" s="7">
         <v>17</v>
@@ -5984,13 +6032,13 @@
         <v>16200</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>380</v>
+        <v>458</v>
       </c>
       <c r="M28" s="7">
         <v>34</v>
@@ -5999,13 +6047,13 @@
         <v>34487</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>425</v>
+        <v>331</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>24</v>
+        <v>460</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6020,13 +6068,13 @@
         <v>176877</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="H29" s="7">
         <v>149</v>
@@ -6035,13 +6083,13 @@
         <v>151461</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="M29" s="7">
         <v>314</v>
@@ -6050,13 +6098,13 @@
         <v>328339</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6124,13 +6172,13 @@
         <v>947288</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>223</v>
+        <v>472</v>
       </c>
       <c r="H31" s="7">
         <v>833</v>
@@ -6139,13 +6187,13 @@
         <v>870437</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="M31" s="7">
         <v>1734</v>
@@ -6154,13 +6202,13 @@
         <v>1817726</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>472</v>
+        <v>478</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -6175,13 +6223,13 @@
         <v>131565</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>313</v>
+        <v>123</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="H32" s="7">
         <v>108</v>
@@ -6190,13 +6238,13 @@
         <v>115456</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>279</v>
+        <v>76</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>280</v>
+        <v>481</v>
       </c>
       <c r="M32" s="7">
         <v>231</v>
@@ -6205,13 +6253,13 @@
         <v>247021</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>240</v>
+        <v>392</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6226,13 +6274,13 @@
         <v>402830</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>116</v>
+        <v>485</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="H33" s="7">
         <v>397</v>
@@ -6241,13 +6289,13 @@
         <v>419791</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>326</v>
+        <v>488</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="M33" s="7">
         <v>782</v>
@@ -6256,13 +6304,13 @@
         <v>822621</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>481</v>
+        <v>490</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>482</v>
+        <v>491</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>483</v>
+        <v>492</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6277,13 +6325,13 @@
         <v>122598</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>72</v>
+        <v>493</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
       <c r="H34" s="7">
         <v>174</v>
@@ -6292,13 +6340,13 @@
         <v>181134</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="M34" s="7">
         <v>290</v>
@@ -6307,13 +6355,13 @@
         <v>303732</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>490</v>
+        <v>372</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6328,13 +6376,13 @@
         <v>223579</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>141</v>
+        <v>501</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>493</v>
+        <v>502</v>
       </c>
       <c r="H35" s="7">
         <v>278</v>
@@ -6343,13 +6391,13 @@
         <v>297666</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>494</v>
+        <v>503</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="M35" s="7">
         <v>490</v>
@@ -6358,19 +6406,19 @@
         <v>521246</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>498</v>
+        <v>423</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7">
         <v>218</v>
@@ -6379,13 +6427,13 @@
         <v>232472</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>501</v>
+        <v>207</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="H36" s="7">
         <v>238</v>
@@ -6394,13 +6442,13 @@
         <v>252268</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>379</v>
+        <v>510</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>504</v>
+        <v>139</v>
       </c>
       <c r="M36" s="7">
         <v>456</v>
@@ -6409,13 +6457,13 @@
         <v>484739</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>506</v>
+        <v>63</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6430,13 +6478,13 @@
         <v>88892</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>509</v>
+        <v>77</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>278</v>
+        <v>237</v>
       </c>
       <c r="H37" s="7">
         <v>111</v>
@@ -6445,13 +6493,13 @@
         <v>115080</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>305</v>
+        <v>391</v>
       </c>
       <c r="M37" s="7">
         <v>193</v>
@@ -6460,13 +6508,13 @@
         <v>203972</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>147</v>
+        <v>516</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>400</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,13 +6529,13 @@
         <v>1228394</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="H38" s="7">
         <v>1187</v>
@@ -6496,13 +6544,13 @@
         <v>1280267</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="M38" s="7">
         <v>2365</v>
@@ -6511,13 +6559,13 @@
         <v>2508660</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,7 +6621,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -6592,7 +6640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FD039B5-DF53-46DE-87D5-1E546A8F9DDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB23F14E-A2C8-4D95-A1CC-7DA040F1E589}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6609,7 +6657,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6716,13 +6764,13 @@
         <v>160198</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="H4" s="7">
         <v>222</v>
@@ -6731,13 +6779,13 @@
         <v>128663</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="M4" s="7">
         <v>427</v>
@@ -6746,13 +6794,13 @@
         <v>288861</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>533</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6815,13 @@
         <v>50299</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>532</v>
+        <v>114</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
@@ -6782,13 +6830,13 @@
         <v>82964</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>263</v>
+        <v>538</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
@@ -6797,13 +6845,13 @@
         <v>133263</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>482</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6866,13 @@
         <v>47275</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="H6" s="7">
         <v>150</v>
@@ -6833,13 +6881,13 @@
         <v>80297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>541</v>
+        <v>441</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
@@ -6848,13 +6896,13 @@
         <v>127572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6917,13 @@
         <v>18322</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>435</v>
+        <v>552</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>486</v>
+        <v>553</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
@@ -6884,13 +6932,13 @@
         <v>24089</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
@@ -6899,13 +6947,13 @@
         <v>42411</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>239</v>
+        <v>556</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>557</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>490</v>
+        <v>391</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6920,13 +6968,13 @@
         <v>29146</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>320</v>
+        <v>558</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>549</v>
+        <v>27</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>384</v>
+        <v>537</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
@@ -6935,13 +6983,13 @@
         <v>51512</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>64</v>
+        <v>213</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>550</v>
+        <v>433</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>383</v>
+        <v>559</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
@@ -6950,19 +6998,19 @@
         <v>80658</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>551</v>
+        <v>560</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>119</v>
+        <v>499</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>323</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C9" s="7">
         <v>16</v>
@@ -6974,10 +7022,10 @@
         <v>73</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>552</v>
+        <v>561</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>553</v>
+        <v>562</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
@@ -6989,10 +7037,10 @@
         <v>73</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>104</v>
+        <v>563</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>490</v>
+        <v>391</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
@@ -7004,10 +7052,10 @@
         <v>73</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>100</v>
+        <v>563</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>118</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7022,13 +7070,13 @@
         <v>2187</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -7037,13 +7085,13 @@
         <v>6653</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -7052,13 +7100,13 @@
         <v>8840</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7073,13 +7121,13 @@
         <v>217228</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="H11" s="7">
         <v>720</v>
@@ -7088,13 +7136,13 @@
         <v>430081</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
@@ -7103,13 +7151,13 @@
         <v>647308</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7136,7 +7184,7 @@
         <v>1419</v>
       </c>
       <c r="I12" s="7">
-        <v>829059</v>
+        <v>829058</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>89</v>
@@ -7177,13 +7225,13 @@
         <v>597639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="H13" s="7">
         <v>778</v>
@@ -7192,13 +7240,13 @@
         <v>536594</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>576</v>
+        <v>232</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>577</v>
+        <v>586</v>
       </c>
       <c r="M13" s="7">
         <v>1393</v>
@@ -7207,13 +7255,13 @@
         <v>1134233</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>578</v>
+        <v>587</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>580</v>
+        <v>589</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7228,13 +7276,13 @@
         <v>255397</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>487</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>582</v>
+        <v>591</v>
       </c>
       <c r="H14" s="7">
         <v>370</v>
@@ -7243,13 +7291,13 @@
         <v>274179</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>584</v>
+        <v>593</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>585</v>
+        <v>594</v>
       </c>
       <c r="M14" s="7">
         <v>622</v>
@@ -7258,13 +7306,13 @@
         <v>529576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>478</v>
+        <v>597</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7279,13 +7327,13 @@
         <v>276919</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="H15" s="7">
         <v>417</v>
@@ -7294,13 +7342,13 @@
         <v>297818</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>593</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>680</v>
@@ -7309,13 +7357,13 @@
         <v>574736</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>594</v>
+        <v>486</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>595</v>
+        <v>539</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>596</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7330,13 +7378,13 @@
         <v>95095</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>597</v>
+        <v>496</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>599</v>
+        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
@@ -7345,13 +7393,13 @@
         <v>124373</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>601</v>
+        <v>498</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
@@ -7360,13 +7408,13 @@
         <v>219469</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>356</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7381,13 +7429,13 @@
         <v>147816</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
@@ -7396,13 +7444,13 @@
         <v>294969</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>433</v>
+        <v>322</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -7411,19 +7459,19 @@
         <v>442784</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7">
         <v>73</v>
@@ -7432,13 +7480,13 @@
         <v>100259</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>610</v>
+        <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>274</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
@@ -7447,13 +7495,13 @@
         <v>98829</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>485</v>
+        <v>615</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>319</v>
+        <v>616</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="M18" s="7">
         <v>191</v>
@@ -7462,13 +7510,13 @@
         <v>199088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>599</v>
+        <v>501</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7483,13 +7531,13 @@
         <v>75234</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
@@ -7498,13 +7546,13 @@
         <v>25809</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>326</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -7513,13 +7561,13 @@
         <v>101043</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>392</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,13 +7582,13 @@
         <v>598953</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>418</v>
+        <v>627</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>622</v>
+        <v>628</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="H20" s="7">
         <v>742</v>
@@ -7549,13 +7597,13 @@
         <v>585907</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>624</v>
+        <v>630</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>626</v>
+        <v>632</v>
       </c>
       <c r="M20" s="7">
         <v>1273</v>
@@ -7564,13 +7612,13 @@
         <v>1184860</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>628</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,7 +7674,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -7638,13 +7686,13 @@
         <v>195906</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>352</v>
+        <v>636</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
@@ -7653,13 +7701,13 @@
         <v>187821</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="M22" s="7">
         <v>491</v>
@@ -7668,13 +7716,13 @@
         <v>383727</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>636</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7737,13 @@
         <v>79977</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>429</v>
+        <v>642</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>206</v>
+        <v>643</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
@@ -7704,13 +7752,13 @@
         <v>52147</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>142</v>
+        <v>645</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>125</v>
+        <v>646</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>451</v>
+        <v>647</v>
       </c>
       <c r="M23" s="7">
         <v>164</v>
@@ -7719,13 +7767,13 @@
         <v>132124</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>640</v>
+        <v>609</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>641</v>
+        <v>649</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7788,13 @@
         <v>93796</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>642</v>
+        <v>650</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="H24" s="7">
         <v>131</v>
@@ -7755,13 +7803,13 @@
         <v>84364</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>429</v>
+        <v>642</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="M24" s="7">
         <v>225</v>
@@ -7770,13 +7818,13 @@
         <v>178161</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7839,13 @@
         <v>37648</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>549</v>
+        <v>658</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>507</v>
+        <v>659</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -7806,13 +7854,13 @@
         <v>47700</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>651</v>
+        <v>660</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>553</v>
+        <v>260</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>652</v>
+        <v>442</v>
       </c>
       <c r="M25" s="7">
         <v>100</v>
@@ -7821,13 +7869,13 @@
         <v>85348</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>52</v>
+        <v>661</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>399</v>
+        <v>121</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>391</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7842,13 +7890,13 @@
         <v>63521</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>265</v>
+        <v>662</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="H26" s="7">
         <v>125</v>
@@ -7857,13 +7905,13 @@
         <v>96823</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>541</v>
+        <v>441</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="M26" s="7">
         <v>183</v>
@@ -7872,19 +7920,19 @@
         <v>160344</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>656</v>
+        <v>243</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7">
         <v>50</v>
@@ -7893,13 +7941,13 @@
         <v>53116</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>603</v>
+        <v>125</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
@@ -7908,13 +7956,13 @@
         <v>48796</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>193</v>
+        <v>617</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>456</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="M27" s="7">
         <v>122</v>
@@ -7923,13 +7971,13 @@
         <v>101912</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>501</v>
+        <v>673</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>663</v>
+        <v>674</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7944,13 +7992,13 @@
         <v>4521</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>666</v>
+        <v>677</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -7959,13 +8007,13 @@
         <v>17167</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>667</v>
+        <v>678</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>669</v>
+        <v>680</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -7974,13 +8022,13 @@
         <v>21688</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>670</v>
+        <v>569</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>681</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>671</v>
+        <v>682</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7995,13 +8043,13 @@
         <v>144553</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>672</v>
+        <v>683</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>673</v>
+        <v>230</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>674</v>
+        <v>684</v>
       </c>
       <c r="H29" s="7">
         <v>233</v>
@@ -8010,13 +8058,13 @@
         <v>175224</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>676</v>
+        <v>686</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>677</v>
+        <v>687</v>
       </c>
       <c r="M29" s="7">
         <v>370</v>
@@ -8025,13 +8073,13 @@
         <v>319777</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>678</v>
+        <v>688</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>228</v>
+        <v>689</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>679</v>
+        <v>690</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8058,7 +8106,7 @@
         <v>999</v>
       </c>
       <c r="I30" s="7">
-        <v>710043</v>
+        <v>710042</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>89</v>
@@ -8099,13 +8147,13 @@
         <v>953744</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>680</v>
+        <v>691</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>681</v>
+        <v>692</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>682</v>
+        <v>629</v>
       </c>
       <c r="H31" s="7">
         <v>1273</v>
@@ -8114,13 +8162,13 @@
         <v>853078</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>683</v>
+        <v>693</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>684</v>
+        <v>694</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="M31" s="7">
         <v>2311</v>
@@ -8129,13 +8177,13 @@
         <v>1806822</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>686</v>
+        <v>696</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>687</v>
+        <v>697</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>688</v>
+        <v>698</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8150,13 +8198,13 @@
         <v>385674</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="H32" s="7">
         <v>587</v>
@@ -8165,13 +8213,13 @@
         <v>409290</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>481</v>
+        <v>704</v>
       </c>
       <c r="M32" s="7">
         <v>985</v>
@@ -8180,13 +8228,13 @@
         <v>794964</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>482</v>
+        <v>705</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>115</v>
+        <v>307</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8201,13 +8249,13 @@
         <v>417990</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="H33" s="7">
         <v>698</v>
@@ -8216,13 +8264,13 @@
         <v>462479</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>699</v>
+        <v>488</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="M33" s="7">
         <v>1112</v>
@@ -8231,13 +8279,13 @@
         <v>880469</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>702</v>
+        <v>440</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8252,13 +8300,13 @@
         <v>151065</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>704</v>
+        <v>714</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>705</v>
+        <v>189</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>706</v>
+        <v>715</v>
       </c>
       <c r="H34" s="7">
         <v>282</v>
@@ -8267,13 +8315,13 @@
         <v>196163</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>707</v>
+        <v>716</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>47</v>
+        <v>458</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>26</v>
+        <v>207</v>
       </c>
       <c r="M34" s="7">
         <v>428</v>
@@ -8282,13 +8330,13 @@
         <v>347228</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>708</v>
+        <v>717</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8303,13 +8351,13 @@
         <v>240483</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>387</v>
+        <v>718</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>499</v>
+        <v>719</v>
       </c>
       <c r="H35" s="7">
         <v>491</v>
@@ -8318,13 +8366,13 @@
         <v>443304</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>373</v>
+        <v>720</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>663</v>
+        <v>721</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>709</v>
+        <v>722</v>
       </c>
       <c r="M35" s="7">
         <v>732</v>
@@ -8333,19 +8381,19 @@
         <v>683787</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>396</v>
+        <v>723</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7">
         <v>139</v>
@@ -8354,13 +8402,13 @@
         <v>169528</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>501</v>
+        <v>727</v>
       </c>
       <c r="H36" s="7">
         <v>236</v>
@@ -8372,10 +8420,10 @@
         <v>24</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>123</v>
+        <v>728</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>714</v>
+        <v>729</v>
       </c>
       <c r="M36" s="7">
         <v>375</v>
@@ -8384,13 +8432,13 @@
         <v>341953</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>260</v>
+        <v>730</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>715</v>
+        <v>202</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>716</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8405,13 +8453,13 @@
         <v>81942</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>717</v>
+        <v>731</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>557</v>
+        <v>732</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>110</v>
+        <v>447</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
@@ -8420,13 +8468,13 @@
         <v>49629</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>718</v>
+        <v>733</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>719</v>
+        <v>734</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>720</v>
+        <v>735</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
@@ -8435,13 +8483,13 @@
         <v>131571</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>427</v>
+        <v>736</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>721</v>
+        <v>737</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>722</v>
+        <v>216</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8456,13 +8504,13 @@
         <v>960734</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>723</v>
+        <v>738</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>724</v>
+        <v>739</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>725</v>
+        <v>740</v>
       </c>
       <c r="H38" s="7">
         <v>1695</v>
@@ -8471,13 +8519,13 @@
         <v>1191212</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>726</v>
+        <v>741</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>727</v>
+        <v>742</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>728</v>
+        <v>743</v>
       </c>
       <c r="M38" s="7">
         <v>2644</v>
@@ -8486,13 +8534,13 @@
         <v>2151946</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>729</v>
+        <v>744</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>730</v>
+        <v>745</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>461</v>
+        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8548,7 +8596,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P34B01-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E49B87EB-11E3-4CB9-823F-CE0FCE875C35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B66E8C3E-35E9-4A93-908B-9070115D863E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4851987A-0FFF-476E-91C5-953B076943CE}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C063C701-57F6-423A-9A76-4A8C29E3BF3B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="747">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="746">
   <si>
     <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -1621,664 +1621,661 @@
     <t>Población según el número de días a la semana que camina durante más de 30 minutos en 2023 (Tasa respuesta: 99,55%)</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>6,69%</t>
   </si>
   <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>48,49%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>24,91%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>40,68%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>29,5%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>24,97%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>25,65%</t>
+  </si>
+  <si>
+    <t>26,46%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>36,16%</t>
-  </si>
-  <si>
-    <t>44,11%</t>
-  </si>
-  <si>
-    <t>51,88%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>47,25%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>13,32%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>33,1%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
   </si>
   <si>
     <t>14,36%</t>
   </si>
   <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>21,01%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
   </si>
   <si>
     <t>5,96%</t>
   </si>
   <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>26,48%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
 </sst>
 </file>
@@ -2690,7 +2687,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F275787-3608-4178-B8FE-AC302134E777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDE77EF-D226-4C16-8BD1-0459DB77177D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2826,7 +2823,7 @@
         <v>236</v>
       </c>
       <c r="I4" s="7">
-        <v>253593</v>
+        <v>253594</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -3183,7 +3180,7 @@
         <v>510</v>
       </c>
       <c r="I11" s="7">
-        <v>546539</v>
+        <v>546540</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>83</v>
@@ -3234,7 +3231,7 @@
         <v>1247</v>
       </c>
       <c r="I12" s="7">
-        <v>1337796</v>
+        <v>1337797</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>89</v>
@@ -4171,7 +4168,7 @@
         <v>850</v>
       </c>
       <c r="N30" s="7">
-        <v>939812</v>
+        <v>939813</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>89</v>
@@ -4209,7 +4206,7 @@
         <v>646</v>
       </c>
       <c r="I31" s="7">
-        <v>694434</v>
+        <v>694435</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>229</v>
@@ -4617,7 +4614,7 @@
         <v>3293</v>
       </c>
       <c r="I39" s="7">
-        <v>3552336</v>
+        <v>3552337</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>89</v>
@@ -4665,7 +4662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C8501D7-CF7F-4AE8-81DE-E87367C46E23}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FC9646F-A1BC-4DCF-95DD-7B0026DBBC88}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6146,7 +6143,7 @@
         <v>1027</v>
       </c>
       <c r="N30" s="7">
-        <v>1096026</v>
+        <v>1096027</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>89</v>
@@ -6640,7 +6637,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB23F14E-A2C8-4D95-A1CC-7DA040F1E589}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92C9B027-20E8-4828-BDF2-735BE378F2A4}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6761,7 +6758,7 @@
         <v>205</v>
       </c>
       <c r="D4" s="7">
-        <v>160198</v>
+        <v>152013</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>527</v>
@@ -6776,7 +6773,7 @@
         <v>222</v>
       </c>
       <c r="I4" s="7">
-        <v>128663</v>
+        <v>118087</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>530</v>
@@ -6791,16 +6788,16 @@
         <v>427</v>
       </c>
       <c r="N4" s="7">
-        <v>288861</v>
+        <v>270100</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>533</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>534</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6812,46 +6809,46 @@
         <v>63</v>
       </c>
       <c r="D5" s="7">
-        <v>50299</v>
+        <v>44825</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>536</v>
+        <v>378</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>537</v>
+        <v>257</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>114</v>
+        <v>535</v>
       </c>
       <c r="H5" s="7">
         <v>136</v>
       </c>
       <c r="I5" s="7">
-        <v>82964</v>
+        <v>72261</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>444</v>
+        <v>536</v>
       </c>
       <c r="K5" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>539</v>
       </c>
       <c r="M5" s="7">
         <v>199</v>
       </c>
       <c r="N5" s="7">
-        <v>133263</v>
+        <v>117086</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>541</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6863,46 +6860,46 @@
         <v>57</v>
       </c>
       <c r="D6" s="7">
-        <v>47275</v>
+        <v>47212</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>543</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>544</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>545</v>
+        <v>247</v>
       </c>
       <c r="H6" s="7">
         <v>150</v>
       </c>
       <c r="I6" s="7">
-        <v>80297</v>
+        <v>73668</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>546</v>
+        <v>208</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>441</v>
+        <v>545</v>
       </c>
       <c r="M6" s="7">
         <v>207</v>
       </c>
       <c r="N6" s="7">
-        <v>127572</v>
+        <v>120880</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>548</v>
+        <v>303</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>549</v>
+        <v>506</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,46 +6911,46 @@
         <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>18322</v>
+        <v>17567</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="H7" s="7">
         <v>46</v>
       </c>
       <c r="I7" s="7">
-        <v>24089</v>
+        <v>22232</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>554</v>
+        <v>120</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>555</v>
+        <v>117</v>
       </c>
       <c r="M7" s="7">
         <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>42411</v>
+        <v>39799</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>556</v>
+        <v>331</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>391</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,46 +6962,46 @@
         <v>40</v>
       </c>
       <c r="D8" s="7">
-        <v>29146</v>
+        <v>28990</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>558</v>
+        <v>141</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>552</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>537</v>
+        <v>553</v>
       </c>
       <c r="H8" s="7">
         <v>90</v>
       </c>
       <c r="I8" s="7">
-        <v>51512</v>
+        <v>49296</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>213</v>
+        <v>554</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>433</v>
+        <v>555</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="M8" s="7">
         <v>130</v>
       </c>
       <c r="N8" s="7">
-        <v>80658</v>
+        <v>78286</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>560</v>
+        <v>52</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>499</v>
+        <v>557</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>55</v>
+        <v>558</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,46 +7013,46 @@
         <v>16</v>
       </c>
       <c r="D9" s="7">
-        <v>16154</v>
+        <v>17649</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>73</v>
+        <v>559</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>561</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>562</v>
       </c>
       <c r="H9" s="7">
         <v>46</v>
       </c>
       <c r="I9" s="7">
-        <v>24800</v>
+        <v>23380</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>73</v>
+        <v>239</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>563</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>391</v>
       </c>
       <c r="M9" s="7">
         <v>62</v>
       </c>
       <c r="N9" s="7">
-        <v>40953</v>
+        <v>41029</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>73</v>
+        <v>237</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>211</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,46 +7064,46 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2187</v>
+        <v>2114</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>6653</v>
+        <v>6123</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
       </c>
       <c r="N10" s="7">
-        <v>8840</v>
+        <v>8237</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7118,37 +7115,37 @@
         <v>281</v>
       </c>
       <c r="D11" s="7">
-        <v>217228</v>
+        <v>203789</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>575</v>
+        <v>85</v>
       </c>
       <c r="H11" s="7">
         <v>720</v>
       </c>
       <c r="I11" s="7">
-        <v>430081</v>
+        <v>384315</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>578</v>
+        <v>151</v>
       </c>
       <c r="M11" s="7">
         <v>1001</v>
       </c>
       <c r="N11" s="7">
-        <v>647308</v>
+        <v>588104</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>579</v>
@@ -7169,7 +7166,7 @@
         <v>690</v>
       </c>
       <c r="D12" s="7">
-        <v>540809</v>
+        <v>514159</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>89</v>
@@ -7184,7 +7181,7 @@
         <v>1419</v>
       </c>
       <c r="I12" s="7">
-        <v>829058</v>
+        <v>749362</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>89</v>
@@ -7199,7 +7196,7 @@
         <v>2109</v>
       </c>
       <c r="N12" s="7">
-        <v>1369867</v>
+        <v>1263521</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>89</v>
@@ -7222,7 +7219,7 @@
         <v>615</v>
       </c>
       <c r="D13" s="7">
-        <v>597639</v>
+        <v>567349</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>582</v>
@@ -7237,31 +7234,31 @@
         <v>778</v>
       </c>
       <c r="I13" s="7">
-        <v>536594</v>
+        <v>487861</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>585</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>232</v>
+        <v>586</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="M13" s="7">
         <v>1393</v>
       </c>
       <c r="N13" s="7">
-        <v>1134233</v>
+        <v>1055209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>589</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,37 +7270,37 @@
         <v>252</v>
       </c>
       <c r="D14" s="7">
-        <v>255397</v>
+        <v>224798</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>487</v>
+        <v>590</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="H14" s="7">
         <v>370</v>
       </c>
       <c r="I14" s="7">
-        <v>274179</v>
+        <v>235078</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>594</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>622</v>
       </c>
       <c r="N14" s="7">
-        <v>529576</v>
+        <v>459876</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>595</v>
@@ -7324,46 +7321,46 @@
         <v>263</v>
       </c>
       <c r="D15" s="7">
-        <v>276919</v>
+        <v>273065</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>598</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>599</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>600</v>
       </c>
       <c r="H15" s="7">
         <v>417</v>
       </c>
       <c r="I15" s="7">
-        <v>297818</v>
+        <v>276590</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>601</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>602</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M15" s="7">
         <v>680</v>
       </c>
       <c r="N15" s="7">
-        <v>574736</v>
+        <v>549655</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>486</v>
+        <v>603</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>539</v>
+        <v>604</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7375,46 +7372,46 @@
         <v>84</v>
       </c>
       <c r="D16" s="7">
-        <v>95095</v>
+        <v>96062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>496</v>
+        <v>252</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>604</v>
+        <v>297</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>138</v>
+        <v>606</v>
       </c>
       <c r="H16" s="7">
         <v>173</v>
       </c>
       <c r="I16" s="7">
-        <v>124373</v>
+        <v>114507</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="M16" s="7">
         <v>257</v>
       </c>
       <c r="N16" s="7">
-        <v>219469</v>
+        <v>210569</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>433</v>
+        <v>176</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>356</v>
+        <v>609</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7426,46 +7423,46 @@
         <v>143</v>
       </c>
       <c r="D17" s="7">
-        <v>147816</v>
+        <v>151932</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>507</v>
+        <v>611</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>608</v>
+        <v>371</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>609</v>
+        <v>544</v>
       </c>
       <c r="H17" s="7">
         <v>276</v>
       </c>
       <c r="I17" s="7">
-        <v>294969</v>
+        <v>381456</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
       </c>
       <c r="N17" s="7">
-        <v>442784</v>
+        <v>533389</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>196</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>612</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7477,25 +7474,25 @@
         <v>73</v>
       </c>
       <c r="D18" s="7">
-        <v>100259</v>
+        <v>106411</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>176</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>125</v>
+        <v>173</v>
       </c>
       <c r="H18" s="7">
         <v>118</v>
       </c>
       <c r="I18" s="7">
-        <v>98829</v>
+        <v>147104</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>615</v>
+        <v>324</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>616</v>
@@ -7507,7 +7504,7 @@
         <v>191</v>
       </c>
       <c r="N18" s="7">
-        <v>199088</v>
+        <v>253515</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>618</v>
@@ -7516,7 +7513,7 @@
         <v>619</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>501</v>
+        <v>620</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,46 +7525,46 @@
         <v>22</v>
       </c>
       <c r="D19" s="7">
-        <v>75234</v>
+        <v>268083</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="H19" s="7">
         <v>36</v>
       </c>
       <c r="I19" s="7">
-        <v>25809</v>
+        <v>24137</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>326</v>
+        <v>626</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
       </c>
       <c r="N19" s="7">
-        <v>101043</v>
+        <v>292220</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>625</v>
+        <v>66</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>628</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,46 +7576,46 @@
         <v>531</v>
       </c>
       <c r="D20" s="7">
-        <v>598953</v>
+        <v>589590</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="H20" s="7">
         <v>742</v>
       </c>
       <c r="I20" s="7">
-        <v>585907</v>
+        <v>560510</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="M20" s="7">
         <v>1273</v>
       </c>
       <c r="N20" s="7">
-        <v>1184860</v>
+        <v>1150100</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>633</v>
+        <v>286</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>350</v>
+        <v>635</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +7627,7 @@
         <v>1983</v>
       </c>
       <c r="D21" s="7">
-        <v>2147312</v>
+        <v>2277291</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>89</v>
@@ -7645,7 +7642,7 @@
         <v>2910</v>
       </c>
       <c r="I21" s="7">
-        <v>2238478</v>
+        <v>2227242</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>89</v>
@@ -7660,7 +7657,7 @@
         <v>4893</v>
       </c>
       <c r="N21" s="7">
-        <v>4385790</v>
+        <v>4504532</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>89</v>
@@ -7683,46 +7680,46 @@
         <v>218</v>
       </c>
       <c r="D22" s="7">
-        <v>195906</v>
+        <v>190518</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="H22" s="7">
         <v>273</v>
       </c>
       <c r="I22" s="7">
-        <v>187821</v>
+        <v>171609</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="M22" s="7">
         <v>491</v>
       </c>
       <c r="N22" s="7">
-        <v>383727</v>
+        <v>362127</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>636</v>
+        <v>644</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,46 +7731,46 @@
         <v>83</v>
       </c>
       <c r="D23" s="7">
-        <v>79977</v>
+        <v>71671</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>643</v>
+        <v>190</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>644</v>
+        <v>31</v>
       </c>
       <c r="H23" s="7">
         <v>81</v>
       </c>
       <c r="I23" s="7">
-        <v>52147</v>
+        <v>45758</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>645</v>
+        <v>187</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="M23" s="7">
         <v>164</v>
       </c>
       <c r="N23" s="7">
-        <v>132124</v>
+        <v>117429</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>609</v>
+        <v>650</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,46 +7782,46 @@
         <v>94</v>
       </c>
       <c r="D24" s="7">
-        <v>93796</v>
+        <v>91519</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>649</v>
+        <v>441</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="H24" s="7">
         <v>131</v>
       </c>
       <c r="I24" s="7">
-        <v>84364</v>
+        <v>79462</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>642</v>
+        <v>654</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>652</v>
+        <v>196</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="M24" s="7">
         <v>225</v>
       </c>
       <c r="N24" s="7">
-        <v>178161</v>
+        <v>170981</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,28 +7833,28 @@
         <v>37</v>
       </c>
       <c r="D25" s="7">
-        <v>37648</v>
+        <v>36600</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
       </c>
       <c r="I25" s="7">
-        <v>47700</v>
+        <v>44100</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>442</v>
@@ -7866,16 +7863,16 @@
         <v>100</v>
       </c>
       <c r="N25" s="7">
-        <v>85348</v>
+        <v>80699</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>661</v>
+        <v>318</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>121</v>
+        <v>663</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>68</v>
+        <v>502</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7887,46 +7884,46 @@
         <v>58</v>
       </c>
       <c r="D26" s="7">
-        <v>63521</v>
+        <v>63969</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>664</v>
+        <v>620</v>
       </c>
       <c r="H26" s="7">
         <v>125</v>
       </c>
       <c r="I26" s="7">
-        <v>96823</v>
+        <v>91024</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>441</v>
+        <v>667</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="M26" s="7">
         <v>183</v>
       </c>
       <c r="N26" s="7">
-        <v>160344</v>
+        <v>154992</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>243</v>
+        <v>487</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7938,46 +7935,46 @@
         <v>50</v>
       </c>
       <c r="D27" s="7">
-        <v>53116</v>
+        <v>50785</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>669</v>
+        <v>508</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>125</v>
+        <v>671</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>670</v>
+        <v>595</v>
       </c>
       <c r="H27" s="7">
         <v>72</v>
       </c>
       <c r="I27" s="7">
-        <v>48796</v>
+        <v>46238</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>617</v>
+        <v>672</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>456</v>
+        <v>374</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="M27" s="7">
         <v>122</v>
       </c>
       <c r="N27" s="7">
-        <v>101912</v>
+        <v>97023</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7989,46 +7986,46 @@
         <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>4521</v>
+        <v>4408</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
       </c>
       <c r="I28" s="7">
-        <v>17167</v>
+        <v>15700</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>678</v>
+        <v>70</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>679</v>
+        <v>417</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>680</v>
+        <v>72</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
       </c>
       <c r="N28" s="7">
-        <v>21688</v>
+        <v>20108</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>569</v>
+        <v>680</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>681</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>682</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8040,13 +8037,13 @@
         <v>137</v>
       </c>
       <c r="D29" s="7">
-        <v>144553</v>
+        <v>137153</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>683</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>684</v>
@@ -8055,7 +8052,7 @@
         <v>233</v>
       </c>
       <c r="I29" s="7">
-        <v>175224</v>
+        <v>163084</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>685</v>
@@ -8070,7 +8067,7 @@
         <v>370</v>
       </c>
       <c r="N29" s="7">
-        <v>319777</v>
+        <v>300238</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>688</v>
@@ -8091,7 +8088,7 @@
         <v>681</v>
       </c>
       <c r="D30" s="7">
-        <v>673039</v>
+        <v>646623</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>89</v>
@@ -8106,7 +8103,7 @@
         <v>999</v>
       </c>
       <c r="I30" s="7">
-        <v>710042</v>
+        <v>656974</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>89</v>
@@ -8121,7 +8118,7 @@
         <v>1680</v>
       </c>
       <c r="N30" s="7">
-        <v>1383082</v>
+        <v>1303598</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>89</v>
@@ -8144,7 +8141,7 @@
         <v>1038</v>
       </c>
       <c r="D31" s="7">
-        <v>953744</v>
+        <v>909881</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>691</v>
@@ -8153,37 +8150,37 @@
         <v>692</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>629</v>
+        <v>693</v>
       </c>
       <c r="H31" s="7">
         <v>1273</v>
       </c>
       <c r="I31" s="7">
-        <v>853078</v>
+        <v>777556</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="M31" s="7">
         <v>2311</v>
       </c>
       <c r="N31" s="7">
-        <v>1806822</v>
+        <v>1687437</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8195,22 +8192,22 @@
         <v>398</v>
       </c>
       <c r="D32" s="7">
-        <v>385674</v>
+        <v>341294</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>701</v>
+        <v>32</v>
       </c>
       <c r="H32" s="7">
         <v>587</v>
       </c>
       <c r="I32" s="7">
-        <v>409290</v>
+        <v>353097</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>702</v>
@@ -8225,7 +8222,7 @@
         <v>985</v>
       </c>
       <c r="N32" s="7">
-        <v>794964</v>
+        <v>694391</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>705</v>
@@ -8234,7 +8231,7 @@
         <v>706</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>307</v>
+        <v>707</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8246,46 +8243,46 @@
         <v>414</v>
       </c>
       <c r="D33" s="7">
-        <v>417990</v>
+        <v>411797</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="H33" s="7">
         <v>698</v>
       </c>
       <c r="I33" s="7">
-        <v>462479</v>
+        <v>429719</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>488</v>
+        <v>712</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>711</v>
+        <v>489</v>
       </c>
       <c r="M33" s="7">
         <v>1112</v>
       </c>
       <c r="N33" s="7">
-        <v>880469</v>
+        <v>841516</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>712</v>
+        <v>114</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>440</v>
+        <v>713</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -8297,46 +8294,46 @@
         <v>146</v>
       </c>
       <c r="D34" s="7">
-        <v>151065</v>
+        <v>150229</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>714</v>
+        <v>44</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>189</v>
+        <v>715</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="H34" s="7">
         <v>282</v>
       </c>
       <c r="I34" s="7">
-        <v>196163</v>
+        <v>180838</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>458</v>
+        <v>395</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>207</v>
+        <v>718</v>
       </c>
       <c r="M34" s="7">
         <v>428</v>
       </c>
       <c r="N34" s="7">
-        <v>347228</v>
+        <v>331067</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>61</v>
+        <v>719</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>67</v>
+        <v>721</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8348,46 +8345,46 @@
         <v>241</v>
       </c>
       <c r="D35" s="7">
-        <v>240483</v>
+        <v>244891</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>315</v>
+        <v>127</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>718</v>
+        <v>610</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>719</v>
+        <v>255</v>
       </c>
       <c r="H35" s="7">
         <v>491</v>
       </c>
       <c r="I35" s="7">
-        <v>443304</v>
+        <v>521776</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>721</v>
+        <v>723</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="M35" s="7">
         <v>732</v>
       </c>
       <c r="N35" s="7">
-        <v>683787</v>
+        <v>766667</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>703</v>
+        <v>110</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>724</v>
+        <v>288</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8399,46 +8396,46 @@
         <v>139</v>
       </c>
       <c r="D36" s="7">
-        <v>169528</v>
+        <v>174844</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>727</v>
+        <v>388</v>
       </c>
       <c r="H36" s="7">
         <v>236</v>
       </c>
       <c r="I36" s="7">
-        <v>172425</v>
+        <v>216722</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>24</v>
+        <v>728</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>729</v>
+        <v>180</v>
       </c>
       <c r="M36" s="7">
         <v>375</v>
       </c>
       <c r="N36" s="7">
-        <v>341953</v>
+        <v>391567</v>
       </c>
       <c r="O36" s="7" t="s">
         <v>730</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>202</v>
+        <v>731</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>188</v>
+        <v>732</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8450,46 +8447,46 @@
         <v>29</v>
       </c>
       <c r="D37" s="7">
-        <v>81942</v>
+        <v>274605</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>447</v>
+        <v>735</v>
       </c>
       <c r="H37" s="7">
         <v>66</v>
       </c>
       <c r="I37" s="7">
-        <v>49629</v>
+        <v>45960</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>733</v>
+        <v>333</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="M37" s="7">
         <v>95</v>
       </c>
       <c r="N37" s="7">
-        <v>131571</v>
+        <v>320565</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>736</v>
+        <v>458</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>216</v>
+        <v>739</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,28 +8498,28 @@
         <v>949</v>
       </c>
       <c r="D38" s="7">
-        <v>960734</v>
+        <v>930532</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>740</v>
+        <v>724</v>
       </c>
       <c r="H38" s="7">
         <v>1695</v>
       </c>
       <c r="I38" s="7">
-        <v>1191212</v>
+        <v>1107909</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>742</v>
+        <v>582</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>743</v>
@@ -8531,16 +8528,16 @@
         <v>2644</v>
       </c>
       <c r="N38" s="7">
-        <v>2151946</v>
+        <v>2038442</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>745</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>746</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8552,7 +8549,7 @@
         <v>3354</v>
       </c>
       <c r="D39" s="7">
-        <v>3361160</v>
+        <v>3438073</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>89</v>
@@ -8567,7 +8564,7 @@
         <v>5328</v>
       </c>
       <c r="I39" s="7">
-        <v>3777579</v>
+        <v>3633578</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>89</v>
@@ -8582,7 +8579,7 @@
         <v>8682</v>
       </c>
       <c r="N39" s="7">
-        <v>7138739</v>
+        <v>7071651</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>89</v>
